--- a/news_data/2019_12.xlsx
+++ b/news_data/2019_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,96 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 3회 연속 관광발전지역 1등급 달성</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 기항지에서 준(準) 모항으로 육성한다</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '색달식당 중문본점'이 다른 중문 맛집들보...</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 제주시갑 국회의원 출마</t>
+  </si>
+  <si>
+    <t>제주도, 올해 최우수 공영관광지는 ‘기당미술관’</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 '색달식당 중문본점' 연말연시 12월 동백꽃 축제 보...</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 "경제 반드시 살리겠다"</t>
+  </si>
+  <si>
+    <t>제주도 입도 관광객 3년만에 '1500만명' 회복</t>
+  </si>
+  <si>
+    <t>연말모임장소로 인기있는 효리의단골집 제주도 중문 관광단지 맛집 '이조은식...</t>
+  </si>
+  <si>
+    <t>연말에 즐기기 좋은 갈치정식, 제주도 중문 관광단지 맛집 ‘이조은식당’에서</t>
+  </si>
+  <si>
+    <t>새해 1월 제주도 관광 10선...놓치지 말아야 할 여행코스는?</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 부실검증 신뢰도 하락</t>
+  </si>
+  <si>
+    <t>연말모임은 효리의단골집 제주도 중문 관광단지 맛집 '이조은식당'</t>
+  </si>
+  <si>
+    <t>제주도관광협회 한길정보통신학교 물품 전달</t>
+  </si>
+  <si>
+    <t>제주도, 중국인 관광객 유치 세일즈 나섰다</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광자원 현장체험 실시</t>
+  </si>
+  <si>
+    <t>한섬 '제주도' 공략 시동…지역민·관광객 잡는다</t>
+  </si>
+  <si>
+    <t>곡성군, 침실습지 생태관광 조성 위해 제주도 현장학습 실시</t>
+  </si>
+  <si>
+    <t>제주도·유엔세계관광기구 내년 섬관광정책 공동세미나 개최</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 통문어, 통갈치조림으로 중...</t>
+  </si>
+  <si>
+    <t>제주도 직영관광지 장애인 차별 금지 추진</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 '색달식당 중문본점' 12월 카멜리아힐 동백꽃 축제...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '베스트 관광인'에 문영찬-김태민 선정</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광 홍보 서포터즈 6명 위촉</t>
+  </si>
+  <si>
+    <t>겨울여행지로 떠오르는 제주도, 중문 관광단지 맛집 ‘이조은식당’ 주목</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도내 대학들과 '손 잡기' 마무리</t>
+  </si>
+  <si>
     <t>제주도 중문관광단지 맛집 '색달식당 중문본점' 카멜리아힐 12월 동백꽃 축제...</t>
   </si>
   <si>
+    <t>겨울여행으로 좋은 제주도 중문 관광단지 맛집 '이조은식당' 세가지 갈치요리...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도...</t>
+  </si>
+  <si>
     <t>제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 ...</t>
   </si>
   <si>
-    <t>겨울여행으로 좋은 제주도 중문 관광단지 맛집 '이조은식당' 세가지 갈치요리...</t>
-  </si>
-  <si>
-    <t>제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도...</t>
-  </si>
-  <si>
     <t>제주도 사진명소 관광객·주민 불편 해소한 예래동주민센터</t>
   </si>
   <si>
@@ -52,31 +130,97 @@
     <t>제주맛집 '표선행복한식당', 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도...</t>
   </si>
   <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-04 10:19 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 곽종현 기자 승인 2019.12.15 11:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 겨울 제주도는 다양한 매력을 갖고 있다. 겨울 제주여행에서 빼놓을 수 없는 것이 바로 동백꽃이다. 겨울에 핀 동백은 화려하며, 짙은 녹색의 타원형 잎 속에서 빨간 꽃을 피운다. 나무에 핀 동백꽃도 아름답지만 땅에 떨어진 꽃들도 무척이나 아름답다. 그리고 따뜻한 온천에 들러 몸을 녹이는 것도 좋다. 중문관광단지 인근에는 세계적으로 보기 드문 탄산온천인 산방산 탄산온천이 있어 많은 이들이 찾고 있다. 아울러 중문관광단지에는 신선한 해산물 요리가 나오는 제주 맛집이 많은데 최근 제주 맛집을 찾은 손님들이 통갈치조림을 즐겨 찾고 있다. 중문 맛집 ‘색달식당 중문본점’ 제주 갈치조림 맛집으로 제주도민 사이에서 이미 입소문이 많이 나 있는 곳으로 최근에는 여행객들에게도 인기몰이라고 한다. 이곳에서 베스트 메뉴 중 하나는 문어통갈치세뉴메뉴인데, 생물 통갈치가 그대로 들어가고 전복, 문어, 딱새우 등 신선한 해산물을 모두 통으로 맛볼 수 있어 이곳을 찾은 남녀노소의 입맛 모두 만족시키고 있다. 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 있어 산방산, 카멜리아힐, 중문색달해변 등 다양한 여행지와 함께 가기 좋은 곳으로 최적의 위치를 자랑하고 있어서 중문관광단지 맛집 대표적인 곳으로 자리매김하고 있다. 또한, 중문맛집 색달식당 중문본점은 가성비가 좋은 식당으로도 정평이 나있는데 그 이유는 통갈치문어세트와 함께 무료로 고등어구이와 돌솥밥 제주도의 대표 향토음식 중 하나인 성게미역국도 맛볼 수 있기 때문이다. 디저트로는 인원수에 맞게 오메기떡이 무료로 나오기도 한다. 또한, 손님들의 편의를 위해 해산물 손질은 모두 직원들에 직접 해주고 있어 방문객들의 만족도가 높다고 한다. 이곳을 방문한 차씨는 "신선한 제주 갈치를 맛볼 수 있어서 좋았고, 해산물 손질부터 다양한 서비스를 무료로 제공하고 있어 너무 좋았다. 특히나 요리의 맛이 누구나 좋아할 맛이라 저희 가족 모두 만족스러운 식사를 즐길 수 있었다. 역시 제주 중문 맛집으로 꼽힐만하다."라며 큰 만족감을 보였다. 중문관광단지 맛집 색달식당 중문본점은 제주 롯데호텔과 제주 신라호텔 등과 가까운 곳에 있어 접근성이 좋으며 중문관광단지 내 어디에서든 식당을 쉽게 방문할 수 있도록 무료 픽업 서비스를 제공하고 있는 등의 많은 편의를 제공하고 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' "尹, '대통령 임기 5년이 뭐가 대단하다고' 고스란히 돌려준다" 경북도, '경주 통일전' 내년부터 직접 관리 최신기사 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' 진천군 '쓰레기산'...이러지도 저러지도 못하는 '진퇴양난' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' [포토]충남 천안천 일대에 지난밤 폭우 흔적들 '잡초, 쓰레기 뒤엉켜 지저분' 인천항만공사, 인천지역 포워더 지원 본격화 인천항만공사, 인천지역 포워더 지원 본격화 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 [포토]충남 천안천서 교량 표지 통째로 뽑힌 채 방치 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 대전학생교육문화원, 초 ‧ 중 ‧ 고 대상 '우리지역 작가 특강' 운영 Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
-  </si>
-  <si>
-    <t>제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 기자명 김연화 기자 입력 2019.12.05 17:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제 관광정책 역량 확보 계기될 듯… UN WTO 사무총장 참석도 추진키로 제주특별자치도 [시사매거진/제주=김연화 기자] 제주도와 유엔 세계관광기구(UN WTO)가 내년 5월 제주에서 열리는 ‘섬관광정책(ITOP) 국제정책세미나’를 공동으로 개최하기로 협의했다. 제주의 국제관광 네트워크가 아시아를 넘어 전세계적으로 확대되기 위해서는 158개국의 회원국을 보유한 유엔 세계관광기구와의 연대가 효과적이라는 필요성에서 출발했다. 유엔 세계관광기구 입장에서도 지난 1997년에 제주를 본부로 해 하이난, 오키나와, 발리 등 해외 섬지역 지방정부들로 구성된 ITOP 포럼과의 협력에 높은 관심이 반영된 결과다. 이를 위해 도에서는 지난 6월 부탄에서 열린 「2019 UN WTO 지역컨퍼런스」에 참가해 제주관광설명회를 개최한 데 이어, 10월에는 중국 계림에서 열린「제13회 UN WTO &amp; PATA(아태관광협회) 포럼」에 참가해 상호 협의를 통해 공동개최에 대해 잠정 합의를 이끌어내기도 했다. 제주도는 내년 4회째를 맞는 섬관광정책 국제정책세미나가 유엔 세계관광기구와 공동으로 개최되면서 행사의 시너지를 높임은 물론 제주관광의 정책 네트워크를 확대하는 데 많은 도움이 될 것으로 보고 있다. 또한, 유엔 세계관광기구의 회원 네트워크를 통해 빅데이터 조사·분석 등 제주의 선진 관광정책을 전 세계에 온오프라인으로 홍보할 수 있는 절호의 기회가 될 것으로 보고 있다. 해리 황(Harry Hwang) 유엔 세계관광기구 부국장은 “내년 5월 제주행사에 주랍 폴로리카스빌리(Zurab Pololikashvili) 사무총장의 참석을 본격적으로 추진하겠다”며 “이는 제주관광의 지속가능한 국제네트워크의 기반을 마련하는 계기가 될 것이다”라고 강조했다. 강영돈 제주특별자치도 관광국장은 “이번 정책네트워크 구축은 제주 관광의 위상이 대한민국을 넘어 국제적으로 한 단계 업그레이드되는 디딤돌이 될 것으로 기대 된다”면서 “행사의 성공적 개최를 위해 차질 없이 준비해 나가겠다”고 말했다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 기자명 윤주형 기자 입력 2019.12.15 14:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 부동석)이 문영찬 장춘육당 실장과 김태민 우도동굴레저 대표를 이달의 베스트 관광인으로 선정하고 선정패를 전달했다.제주도관광협회는 지난 12일 제주종합비지니스센터에서 10월 베스트 관광인 문영찬 실장과 11월 베스트 관광인 김태민 대표에게 선정패와 친절 키움 꽃 화분을 전달했다.문영창 장춘육당 실장은 20여년의 경력을 살려 다양한 메뉴를 개발하며 도내 외식업 경쟁력을 강화한 점 등을 인정받았다.김태민 우도동굴레저 대표는 우도 관광객에게 볼거리, 즐길거리 등 서비스를 발굴하고 제공해 우도 관광 경쟁력을 높였다는 평가를 받았다.부동석 도관광협회장은 "제주 관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유하고 제주 관광 종사자의 친절 및 서비스 마인드를 높이겠다"고 말했다. 윤주형 기자 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 사진명소 관광객·주민 불편 해소한 예래동주민센터 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 04일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 제주도 사진명소 관광객·주민 불편 해소한 예래동주민센터 박창원 입력 2019-12-04 14:25 수정 2019-12-04 14:25 ▲ [아시아타임즈=박창원 기자] 제주도 서귀포 색달동에 위치한 갯깍 주상절리대가 최근 인터넷과 개인 SNS를 타고 제주도 사진명소로 급격히 관심을 받고 있다. 갯깍 주상전리대는 2011년도에 낙석위험으로 제주 올렛길 8코스에서 제외가 되었고 관광객에 큰 관심을 받지 못했다. 그러나 금년 가을부터 사진명소로 입소문이 나면서 관광객이 갑자기 몰려 좁은진입도로와 주차공간이 부족해 예래동 주민과 관광객의 불편이 많아지기 시작했다. 갯깍 주상전리대의 진입도로가 경사가 가파른 군 전술도로로 활용되었던 길로 안내가되어 사고위험이 많고 특히 양방향 차량 교행이 어려워 이곳을 처음 찾는 관광객들의 불편과 주차장공간이 없다보니 좁은 도로에 갓길 주차로 인해 생활을 하고 있는 주민들까지 불편을 야기하고 있었다. 이러한 상황속에서 예래동주민센터는 갑작스러운 관광객 증가에 신속히 대응하고 선제적으로 불편을 해소 시키는 노력을 하고 있어 관광객과 지역주민들에세 찬사를 받고 있다. ▲ 예래동장을 하고있는 강동언(53)사무관은 먼저 위험안내와 교통혼잡에 대한 현수막을 설치하고 또한 국내 포털사이트에 정보수정을 요청해 갯깍 주상전리대를 진입하는 길 안내를 예전 군 전술도로에서 안전한 논짓물 우회도로 안내를 요청해 지금은 우회로 정보가 반영되어 안내가 되고 있다. 그리고 잉여 예산을 신속히 투입해 교통통제 안내인원까지 배치해 추가적인 안전을 확보한 상태이다. 애월읍주민센터는 신청사건립으로 임시청사 이전안내를 6개월 동안 하지 않고 방치해두어(본사2019.11.15기사) 지역사회 비판을 받았었는데 예래동주민센터는 선제적으로 관광객 유입경로를 파악해 사전 조치하는 것은 운영책임자의 복무자세와 마음가짐이 이렇게 다른 행정결과를 낳을 수 있는 것을 보여준 한 사례로 지역사회는 펑가하고 있다. ▲ 박창원 사회2부 다른기사 보기 gostar1a@daum.net [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 벤츠 타는 곽재선 KG그룹 회장, 쌍용차로 '확' 바꿀까 "가격 폭등에 IRA 후폭풍까지"…K배터리, 리튬 찾아 지구 한 바퀴 손흥민 내세운 '메가커피'•정해인 발탁한 '컴포즈커피'…저가커피 공세 [단독] 이스타항공, 고용안정 강조하더니⋯육아휴직자, 복직에 ‘해고’칼날 이스타항공 육아휴직자들, 복직 신청하니 돌아온 건 해고 통지서 해고도 서러운데 회사, 자진퇴사로 고용당국 보고⋯항의하니 수정 이스타항공 "2년 전 해고대상자는 육휴 후 퇴사 처리돼야"⋯노무사는 "문제 있어" [아시아타임즈=김영봉 기자] 지난 2020년 10월 이스타항공에는 대규모 정리해고의 칼바람이 불었었죠. 당시 해고 대상자로 통보받았다가 육아휴직(육휴)으로 해고의 칼날을 피한 직원들도 있었는데요. 그런데 해고는 끝난 것이 아니었습니다. 이스타항공의 주인이 성정으로 바뀌고 2년이 지난 시점, 육휴 중 복직을 신청한 직원들에게 곧바로 해고를 통보한 것으로 드러났습니다. 더욱 황당한 것은 이스타항공이 육휴 후 복직 신청을 한 직원들에게 정리해고를 통보해 놓고 고용당국에는 ‘자진퇴사’로보고했다는 점입니다. 해고된 직원이 실업급여와 육휴 사후지급금이라도 받기위해 고용당국에 전화하는 과정에서 밝혀진 것인데요. 해고된 직원이 항의하자 그제 서야 회사는 실수였다며 ‘비자발적 퇴사’로 바꿨습니다. 이스타항공은 육휴 했더라도 2년 전의 해고 대상자는 아직 해고가 유효하다는 입장입니다. 그러나 회사가 지난 7월 3일 입장문을 통해 새로운 항공사로서 재직자의 ‘고용안정’을 강조한 것과는 다른 모습이라 논란이 될 것으로 보입니다. 지워지지 않은 해고명부 아시아타임즈는 지난 29일 경기도 일산 한 카페에서 육휴 중 복직신청을 했다가 해고된 이스타항공 운항승무원 A씨와 B씨를 만나 이야기를 들었습니다. 이들은 지난 2020년 10월 해고대상자에서 포함됐다가 육휴를 신청해 해고를 피할 수 있었는데요 . 남녀고용평등법 상 육휴자는 해고할 수 없다는 규정 덕분이었습니다. 그러나 2년이 지난 현재, 새로운 회사가 됐다던 이스타항공은 7월 말 육휴 중 복직을 신청한 승무원들에게 복직도 하기전에 해고를 통보했습니다. A씨의 경우 7월27일 조기 복직 신청(8월29일 복직 희망)을 냈고, 이틀 후(29일) 회사는 기다렸다는 듯 ‘해고일정 변경통지서’를 보낸 것입니다. B씨 역시 7월 말 복직 신청서를 내고, 8월3일 회사로부터 해고 통지서를 받았습니다. A씨 통지서에는 “귀하는 2020년 10월14일자로 회사의 경영상 이유에 의해 해고대상자에 해당 됐으나, 당시 육휴 사용으로 인해 기 통보된 해고 일자가 육아휴직 종료시점 이후인 2022년 8월 29일자로 변경됨을 알려드립니다”고 돼있었습니다. B씨 역시 내용은 같습니다. 육휴자들 “참담, 회생 종료되고 긴박한 경영 문제 사라졌는데...”…자진퇴사 보고 논란도 A씨와 B씨는 회사의 정리해고에 대해 어느 정도 인지하고 있었다면서도 부당하다고 토로했습니다. 당시 경영상 어려움과 지금은 달라졌고, 이스타항공이 올해 3월 회생절차에서 졸업하고 주인이 완전히 바뀌면서 긴박한 경영상 어려움은 해소돼 현재 해고를 실행할 이유가 없다는 주장입니다. A씨는 "참담한 심정이다. 회생종료가 됨으로써 긴박한 경영상의 이유가 사라졌기 때문에 조기복직을 신청한 것”이라며 “우리는 복직원을 제출했지 퇴직원을 내지 않았다”고 하소연했습니다. A씨는 8월29일 해고가 된 후 더욱 황당한 일을 겪었다고 성토했습니다. 그는 “회사가 복직과 동시에 자른다고 하니, 실업급여라도 신청할 수밖에 없었다”며 “그런데 고용당국에 연락했더니, 4대보험 상실신고가 ‘자진퇴사’로 되어 있었다는사실을 알게 됐고, 실업급여와 육아휴직 사후지급금을 받지 못한다는 말을 들었다”고 설명했습니다. 이어 “알고 보니 회사가 자진퇴사로 보고한 것”이라며 “회사에 항의한 끝에 실수라는 사과와 함게 비자발적 퇴사로 수정했는데, 정리해고를 당한 것도 힘든데 (회사가)두번 죽이는 구나하는 생각까지 들었다”고 토로했습니다. B씨는 복직원을 내고 해고통지서가 날아오자 “올 것이 왔구나하는 생각이 들었다” 고 말문을 열었습니다. 그는 “한 번 해고 통보를 받은 상태였다가 우여곡절 끝에 육아휴직이 됐는데, 다시 해고 통지서를 받으니 착잡하다”며 “회사의 긴박한 경영상황은 회생졸업으로 사라지지 않았냐”고 재차 강조했습니다. 이스타항공 “2년전 해고대상자, 퇴사 처리는 당연” vs 노무사 “문제 있어” 이스타항공은 육휴자는 2년 전 정리해고 대상자라며 해고는 당연하다고 주장합니다. 이들이 해고되지 않으면 당시 해고됐던 605명과 형평성이 맞지 않다는 식의 논리입니다. 이스타항공 측은 기자와 연락을 통해 “2년 전 정리해고 통보를 받은 후 육휴를 사용한 경우 종료후 퇴사 처리가 돼야 한다”면서 “육휴 중에는 절차가 진행될 수 없기 때문”이라고 말했습니다. 이어 “(육휴자의 경우) 퇴직금 수령을 위해 조기 복직 후 절차가 진행된 경우가 있다"며 "정상화 이후 공정한 절차로 퇴직자를 우선채용할 것”이라고 덧붙였습니다. 참고로 대량해고 후 지방노동위원회는 이들 육아휴직자에 대해 남녀고용평등법에 의해 해고할 수 없다는 판결을 내린바 있습니다. 그럼 노동전문가는 이에 대해 어떻게 생각할까요? 기자는 두 명의 노무사로부터 이스타항공의 육휴자 해고에 대해 문제가 있다는 답변을 받았습니다. 특히 직장갑질 119 최혜인 노무사는 “2020년 경영 상태와 지금이 다를 수 있기 때문에 그 당시 해고 대상자였다고 해서 지금 정리해고 대상자로 선정한다는 것은 문제가 있다”며 “근로기준법상 정리해고 요건이 있고, 또 해고는 합리적 근거를 가지고 대상자를 선정해야 하다"고 지적했습니다. 이어 "해당 회사가 그런 기준을 수립하지 않고 2년 전 대상자니까 해고를 단행한다는 것은 해고 대상자 선정의 합리성이 결여된 것으로 보여진다"고 말했습니다. 한편 이스타항공은 지난 7월3일 입장문을 통해 “매월 수십억 원의 운영자금을 지출하면서 회사 정상화 및 이를 통한 재직자의 ‘고용안전, 복직을 간절하게 원하고 있는 수백 명의 퇴직자들의 재고용 등을 위해 불철주야 노력하고 있다”고 밝힌 바 있습니다. 국제유가, OPEC+ 대규모 감산 가능성에 상승…WTI 5.2% ↑ 국제유가, OPEC+의 대규모 감산 가능성에 상승 마감 100만 배럴 이상 합의할 시, 지난달 감산폭의 10배 이상에 해당 국제유가, 경기 침체 여파 등으로 4개월 연속 하락세 [아시아타임즈=전소연 기자] 국제유가가 석유수출국기구(OPEC)와 러시아 등 비(非) 산유국 협의체인 OPEC+의 대규모 감산 가능성에 상승 마감했다. 3일(현지시간) 뉴욕상업거래소(NYMEX)에서 11월물 미국 서부텍사스산원유(WTI)는 전일 대비 4.14 달러(5.2%) 상승한 배럴당 83.63 달러에 거래를 마감했다. 12월물 브렌트유는 3.72 달러(4.4%) 오른 배럴당 88.86 달러로 집계됐다. 시장은 OPEC+가 오는 5일 개최하는 회의에서 하루 최대 100만 배럴 이상 감산에 합의할 가능성에 주목하고 있다. 만일 이들이 100만 배럴 이상 감산에 합의한다면 이는 지난달 결정한 감산폭의 약 10배 이상에 달한다. 전문가들은 OPEC+의 대규모 감산 이유로 유가 하락 대응을 꼽고 있다. 유가는 올해 초 러시아의 우크라이나 침공에 따라 폭등한 뒤 중국의 신종 코로나바이러스감염증(코로나19)에 따른 도시 봉쇄, 경기 침체 우려 등으로 인해 지난 6월부터 4개월 연속 하락세를 보이고 있다. 경계 허문 '보더리스 패션' 열풍…영역 넓힌다 패션업계, 젠더리스·보더리스 트렌드 확대 스포츠 의류·속옷·레깅스·교복도 '젠더리스'…매출도 쑥쑥 "'젠더리스' 키워드가 소비 시장에 새로운 패러다임 제시" [아시아타임즈=류빈 기자] 패션업계에 경계를 허문 ‘보더리스(borderless)’ 열풍이 영역을 확장해나가고 있다. 특히 성별 경계를 없앤 ‘젠더리스’ 트렌드는 기존에 캐주얼 의류에 한정됐다면 이제는 스포츠웨어, 학생복 등 다양한 의류 카테고리로 번지고 있는 추세다. 3일 패션업계에 따르면 보더리스 트렌드 중 가장 대표적을 손꼽히는 것은 성별을 구분 짓지 않는 ‘젠더리스(genderless)’ 패션이다. 세계적 팝스타인 해리 스타일스가 2020년 영국의 대표 음악 시상식인 '브릿 어워드'에 레이스 셔츠, 보라색 니트와 진주 목걸이를 걸치고 등장해 눈길을 끌었다. 국내에서는 배우 이정재가 최근 처음 감독을 맡은 영화 '헌트' 홍보 차 출연한 TV 예능 프로그램에 진주 목걸이를 착용한 채로 출연했다. 여성 패션의 전유물로 손꼽히던 진주 목걸이, 레이스 등이 소위 ‘옷 잘 입는 남자’들로 손꼽히는 셀럽들에게 핫한 패션 아이템으로 떠오른 것이다. 젠더리스는 단순히 하이패션과 셀럽들의 패션에만 국한된 것이 아니다. 젠더리스 패션은 소비자의 접근성을 높여 다양한 패션 카테고리에 적용되고 있다. 최근에는 스포츠와 속옷 의류에도 젠더리스 바람이 불고 있다. 지난 7월 글로벌 스포츠 브랜드 나이키는 서울 마포구 홍대에 ‘나이키 스타일 홍대’를 오픈했다. 이 매장은 성별 구분이 없는 ‘젠더 플루이드(Gender-Fluid)’ 콘셉트의 매장이다. 총 3층 규모로 구성됐다. 남성용, 여성용이 아닌 스타일별로 아이템을 진열했으며, ‘오버사이즈 S, ‘루즈핏 L’ 등으로 상품을 구분해 각자의 취향에 따라 선택할 수 있도록 했다. 신세계인터내셔날이 운영하는 라이프스타일 브랜드 ‘자주’는 지난해 여성용 사각팬티를 처음 선보였다. 최근 여성 소비자들이 몸에 딱 달라붙는 하의 보다 품이 넓은 편안한 패션을 즐겨 입고, 속옷 역시 달라붙지 않은 편안한 속옷을 선호하게 되면서 기존 남성용 트렁크나 드로즈로만 출시됐던 사각팬티가 여성용으로도 나오게 된 것이다. 반면, 몸에 딱 달라붙는 레깅스는 남성 소비자들의 수요가 늘고 있다. 국내 1위 레깅스 업체 젝시믹스는 2분기 매출 528억원을 기록한 가운데, 이 중 남성 레깅스·이너웨어 매출액이 109억원을 차지했다. 또 다른 국내 레깅스 업체 안다르는 지난 2분기에 남성 레깅스 매출로 102억원을 기록했다. 여성복 브랜드가 남성복 시장에 진출하는 경우도 등장했다. 1977년 론칭해 1세대 여성복 브랜드로 손꼽히는 신세계인터내셔날의 '스튜디오 톰보이'는 45년 만에 남성복 시장에 진출했다. 2019년 젠더리스 트렌드 따라 론칭한 남성 제품이 큰 인기를 얻어 본격적으로 남성복 사업을 확장하겠다는 계획이다. 실제로 남성 제품은 여성복 매장에서 함께 판매됐음에도 불구하고 올해 상반기 매출이 전년 동기 대비 85% 증가하며 좋은 반응을 나타냈다. 스튜디오 톰보이는 14일 대구 신세계백화점에 매장을 여는 등 올 하반기 롯데·신세계·현대백화점 등에 총 10개 남성 단독 매장을 오픈할 계획이다. 학생복 업계도 성 고정관념에서 벗어나 소비자 선택의 폭을 확대하고 있다. 최근 ‘편한 교복’ 트렌드에 따라 바지 교복을 선호하는 여학생이 늘고 있다는 점에 주목해, 여학생용 교복 바지 출시가 이어지고 있는 것이다. 형지엘리트의 교복 브랜드 엘리트학생복은 지난 5월 ‘에어 소프트 웜스판’ 바지를 새롭게 출시하며 라인업을 강화했다. 기존 ‘소프트 웜스판’ 바지의 장점은 그대로 살리고 보온성과 경량성을 더욱 높인 것이 특징이다. 폴리에스터와 레이온 혼방 소재에 신축성이 좋은 라이크라 원사를 더했으며, 투명 페트병에서 추출한 원사를 적용해 친환경적 요소를 가미했다. 주름이 적게 생기는 ‘링클 프리 구김방지’ 가공법을 통해 장시간 깔끔하게 착용할 수 있는 것도 장점이다. 업계 관계자는 “최근 MZ 세대를 중심으로 남녀 성별에 얽매이지 않는 '젠더리스'가 트렌드로 자리 잡고 있다”며 “​남성들의 전유물로 여겨졌던 슈트가 여자들 사이에서 인기를 끌고 화장품 광고 속에 남자 모델이 등장하는 등 점차 '젠더리스'라는 키워드가 소비 시장에 새로운 패러다임을 제공하고 있다”고 말했다. 전문가의 목소리 박상덕 칼럼 UN의 24/7 CFE 운동 권강주 칼럼 청산에 머루 다래는 부모님께 드리옵고 임규관 칼럼 ‘아! 가을인가’ 부르기 정균화 칼럼 승리의 언어 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 기자명 김연화 기자 입력 2019.12.04 09:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 우수 콘텐츠 서비스 대상, 전문가 평가위원회 거쳐 비즈니스 우수성과 발전 기여도, 성과 등 심사 거쳐 선정 제주도관광협회가 운영하는 제주여행 온라인마켓 “탐나오”가 코엑스 그랜드볼룸서 개최한 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식서 “한국정보통신산업진흥원 원장상(우수상)” 수상. (사진-제주특별자치도 관광협회) [시사매거진/제주=김연화 기자] 제주특별자치도의 지원으로 제주도관광협회(회장 부동석)가 운영하는 제주여행 온라인마켓 “탐나오”가 3일 코엑스 그랜드볼룸에서 열린 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식에서 “한국정보통신산업진흥원 원장상(우수상)”을 수상했다. 본 수상은 국내 디지털 콘텐츠산업 발전에 기여한 우수 콘텐츠 서비스를 대상으로 전문가 평가위원회를 통해 비즈니스 우수성과 발전 기여도 및 성과 등의 심사를 거쳐 선정됐다. 제주도관광협회가 운영하는 제주여행 온라인마켓 “탐나오”가 코엑스 그랜드볼룸서 개최한 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식서 “한국정보통신산업진흥원 원장상(우수상)” 수상. (사진-제주특별자치도 관광협회) 탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 제주도내 1,300여개 사업체가 참여중이며, 제주도 항공권과 선박, 숙박, 렌트카, 관광지, 레저, 마을체험과 맛집, 제주 특산품과 기념품 등 3천여개의 제주 관광상품을 한 눈에 비교하고 할인 구매할 수 있어 많은 사랑을 받고 있다. 특히 올 12월 20일 까지는 제주 여행객 대상의 특별 할인과 L포인트 추가적립 이벤트 및 감귤따기 체험권 증정 등 겨울 제주여행객을 위한 풍성한 혜택이 준비되어 있다. 한편, 탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트(www.tamnao.com)를 통해 입점을 신청할 수 있다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+    <t>제주도, 3회 연속 관광발전지역 1등급 달성 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 3회 연속 관광발전지역 1등급 달성 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도, 3회 연속 관광발전지역 1등급 달성 기자명 고은이 기자 입력 2019.12.30 16:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 문체부 '2019 관광발전지수 동향 분석 결과' 발표광역자치단체 중 유일하게 3개 분야 1등급 평가제주도가 2019 관광발전지역 종합지수 1등급을 달성하며 광역자치단체 중 유일하게 3년 연속 1등급을 달성했다.문화체육관광부는 한국문화관광연구원과 함께 전국 17개 시도와 152개 시·군을 대상으로 '2019 지역관광발전지수 동향 분석' 결과, 제주도를 비롯한 14곳 광역·기초 지자체를 관광발전지역 1등급으로 평가했다.2015년부터 2년 주기로 진행되는 '지역관광발전지수'는 지역이 관광발전 정도를 정확히 파악하는 기초자료로 관광 수용력, 관광 소비력, 관광 정책 역량 등 3개 분야에서 34개의 세부지표를 마련해 평가하는 것으로 1등급에서 6등급으로 분류해 평가한다.이번 1등급으로 평가된 지역은 제주도, 강원도, 경기도, 경상북도, 전라남도 등 광역지자체 5곳과 거제시, 경주시, 속초시, 순천시, 여수시, 울릉군, 정선군, 창원시, 평창군 등 기초지자체 9곳이다.제주도는 2015년과 2017년에 이어 올해 평가지수 1등급을 기록했으며, 1등급 광역자치단체 가운데 유일하게 관광 수용력·관광 소비력·관광정책역량 등 3개 분야에서 모두 1등급 평가를 받았다. 고은이 기자 rhdmsdl.euni@gmail.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광 기항지에서 준(準) 모항으로 육성한다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 크루즈관광 기항지에서 준(準) 모항으로 육성한다 등록 2019.12.25 13:37:25 작게 크게 도내 내수시장 확대해 관광객 제주체류 가능하도록 추진 최근 한-중 해빙무드 타 중국발 크루즈 운항 재개도 대비 【서귀포=뉴시스】우장호 기자 = 2일 오전 제주 서귀포시 강정동 제주민군복합형관광미항에 영국 국적의 초호화 크루즈선 '퀸 메리(Queen Mary·14만8000t급)2호'가 관광객 2400여명을 태우고 들어와 정박해 있다.퀸메리 2호 관광객들은 이날 오후 6시까지 하루 일정으로 제주를 관광한 후 다음 목적지인 홍콩으로 떠난다. 2019.03.02. woo1223@newsis.com[제주=뉴시스] 강정만 기자 = 제주특별자치도는 지난 2017년 3월 벌어진 ‘사드(THAAD·고고도미사일방어체계) 사태’에 따른 '중국의 한한령(限韓令)' 이후 3년 가까운 기간 동안 침체된 크루즈관광 사업을 위해 제주도를 단순히 기항지 차원에서 준(準) 모항으로 육성하는 등 크루즈관광 활성화 사업을 추진한다고 25일 밝혔다. 도는 이를 위해 먼저 중국 외 일본과 대만, 월드와이드 크루즈 유치 확대를 위해 미국 등 국제크루즈박람회에 참가해 주요 글로벌 크루즈 선사 등에 제주 기항지 인프라 홍보를 강화한다. 해양수산부와 합동으로 일본과 대만, 홍콩 지역 포트 세일즈(Port Sales) 행사에 참가해 현지 크루즈선사와 모객 여행사 관계자를 대상으로 크루즈 제주 유치 확대 마케팅을 펼쳐 나갈 계획이다.이들 지역의 크루즈는 지난해 20회 2만1703명에서 올해는 29회 4만4266명으로 103%가 증가했다. 또  크루즈 관광객들이 제주에도 머무를 수 있도록 도내 크루즈 내수시장을 확대해 제주를 준모항으로 육성하고, 크루즈 도민 인식을 새롭게 하기 위해 크루즈 도민체험단도 확대 운영할 계획이다. 【제주=뉴시스】우장호 기자 = 15일 오후 코스타 세레나호를 타고 제주항 7부두에 입항한 중국 단체관광객들이 하선한 뒤 가이드의 지시를 따르며 이동하고 있다. 2017.03.15. woo1223@newsis.com내년 8월말 ‘제8회 제주국제크루즈포럼’을 개최해 아시아 크루즈산업 활성화 방안모색은 물론 지역경제 활성화와 연관산업 육성 등 제주 크루즈산업의 재도약 방안 마련을 위한 논의와 관련 업계간 비즈니스 미팅(B2B)의 장도 마련한다. 최근 한-중이 ‘해빙무드’가 조성됨에 따라 중국발 크루즈 한국기항 재개가 이뤄질 것으로 보고, 제주항과 서귀포크루즈항에 크루즈 입출항 서비스 제공과 크루즈관광객들에게 관광 정보와 편의 제공 등 크루즈 수용태세도 강화해 제주 재방문을 유도한다. 내년 제주항으로는 크루즈가 295회, 서귀포항에는 202회 기항이 예정돼 있다. 크루즈관광으로 인한 지역경제 활성화를 위해 크루즈선 제주 체류시간을 최소 8시간으로 확대하고 지역상권 방문 등 기항지관광 프로그램 개선을 위한 크루즈선사와 모객여행사 대상으로 관광상품 구성협의도 강화할 방침이다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 복지시스템 개발인력 대거 이탈에 안정화 시일 걸릴 듯 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘색달식당 중문본점’이 다른 중문 맛집들보다 앞서 나간 비결 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘색달식당 중문본점’이 다른 중문 맛집들보다 앞서 나간 비결 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 서귀포 중문관광단지 맛집 ‘색달식당 중문본점’이 다른 중문 맛집들보다 앞서 나간 비결 곽종현 기자 승인 2019.12.30 11:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 제주도 중문관광단지는 12월 겨울을 맞아 동백꽃 제주 허브동산에서 동백꽃축제가 열린다. 100그루 이상의 애기 동백숲이 마련되어 있는 제주 허브동산에서 다채로운 동백꽃의 향연을 즐겼다면 다음은 속을 든든히 채울 차례다. 또한 인터넷에 중문관광단지 맛집, 서귀포 맛집만 검색 하더라도 수십 여개에 달하는 리스트를 확인할 수 있는데, 이러한 치열한 경쟁 속에서도 단연 돋보이는 중문 맛집이 있다. 중문관광단지 맛집 ‘색달식당’ 중문 본점은 통갈치조림으로 독보적인 상승세를 이어가고 있다. 제주도 까지 왔는데, 흑돼지나 고등어 회도 아닌 고작 갈치라니 속았다 싶은 사람도 있을 것이다. 그러나 색달식당 중문본점 갈치는 내륙 지방에서 먹던 것과는 확연히 다른 맛을 보여준다. 지역의 특성상 성인 남자 팔뚝만한 실한 갈치가 많은 것이 그 첫번째 이유이며, 이 지역 전통의 방식을 사용해서 조리 했다는 것이 이색적인 맛을 내는 두번째 포인트이다. 갈치 제철은 7~10월 사이로 알려져 있지만 이는 동해안에서 잡히는 것을 기준으로 한다. 그러나 제주도와 인접한 남해안의 갈치는 이보다 각박한 환경을 극복하고 자라난 것들이기 때문에, 일년내내 크고 튼실한 갈치를 맛 볼수 있다. 이처럼 주재료의 질적인 차이에서부터 맛의 차이가 나타날 수 밖에 없는데, 직접 먹어보면 노량진 수산시장에서 사먹는 것보다 살이 훨씬 찰지고 쫄깃하다는 느낌을 받는다. 이는 구웠을 때 보다 조림 방식으로 조리했을 때, 보다 본연의 맛을 잘 느낄 수 있기 때문에, 제주도에서는 보다 갈치 조림의 맛을 내는 방식이 색다르다. 색달식당에서 조리하는 방식은 이 지역의 전통 방식을 그대로 이어온 것으로 조림 특유의 짠맛 보다는 갈치의 담백한 맛을 그대로 느낄 수 있으며, 국물 맛 또한 깊고 진해서 이 때문에 으뜸으로 평가받고 있다. 이 지역 사람들 누구나 사용하는 전통 방식으로 조리했다고는 하지만 색달식당의 갈치조림은 서귀포 맛집 다른 곳들과 비교되는 부분이 많다. 색달식당 중문 본점은 오랫동안 갈치를 주요 메뉴로 내세우면서, 지역 주민들이 먹던 것과는 달리, 각지에서 몰려드는 손님들의 수요를 맞추기 위해서 한단계 더 발전시킨 이 집만의 특유의 비법을 가지고 있기 때문이다. 때문에 다른 집에 비해서 칼칼하고, 매콤한 맛이 살아있으며, 식사로도 술안주로도 어떻게든 손색없는 메뉴로 탄생할 수 있었다. 이처럼 색달 식당이 중문 맛집 으뜸으로 인정 받을 수 있었던 것은, 타 지역 사람들이 이색적으로 느낄 만한 전통의 방식을 채용함과 동시에, 보다 한걸음 도약한 성과가 그 빛을 발했기 때문이다. 중문맛집 색달식당은 이외에도 함께 오르는 돌솥밥과 성게미역국이 손님들 입에 오르내리는데, 이 또한 대충 구색만 맞춘 상차림이 아니라, 어떻게 하면 전통 갈치 조림과 딱 맞는 궁합의 밥상을 만들 수 있을까, 오랫동안 고민한 결과로 결정된 메뉴들이다. 실제로 찾는 손님들도 남녀노소 할 것 없이, 푸짐하게 즐길 수 있다는 평으로 좋은 반응을 얻고 있다. 중문관광단지 맛집 색달식당은 오전 9시부터 오후 9시 30분까지 운영하고 있으며, 근처 투숙객이 편하게 찾을 수 있도록 픽업 서비스도 제공하고 있다. 보다 자세한 사항은 색달식당 홈페이지를 참고하거나, 전화 문의 또한 항상 친절하게 응대하고 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 제주시갑 국회의원 출마 최종편집 2022년 10월 11일 11시 50분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 김영진 전 제주도관광협회장 제주시갑 국회의원 출마 정기후원 김영진 전 제주도관광협회장 제주시갑 국회의원 출마 현재 무소속으로 자유한국당 입당 예정 현창민 기자(=제주) | 기사입력 2019.12.26. 18:52:11 최종수정 2019.12.26. 23:08:12 페이스북 트위터 카카오스토리 밴드 URL복사 김영진 전 제주도관광협회장이 26일 제주도 의회 도민의방에서 기자회견을 열고 제21대 총선 제주시갑 국회의원 출마를 선언했다.2011년부터 2019년 9월 30일 까지 4번에 걸쳐 제주관광협회장을 연임한 김영진 전 회장은 기자회견에서 "자신은 좌도 우도 아닌 인본주의자의 시각으로 진영논리에서 벗어나 보편적 가치를 추구하는 정치인이 되고 싶다"고 국회의원 출마의변을 피력했다. 김영진 전 제주도관광협회장이 26일 제주도 의회 도민의방에서 기자회견을 열고 제21대 총선 제주시갑 국회의원 출마를 선언했다. ⓒ프레시안(현창민) 김영진 전 회장은 "이번 제21대 국회의원 선거가 제주가 눈앞에 도래한 위기를 타개해 새로운 여정을 시작할 것인가 아니면 여전히 진영논리에 갇힌 구태를 답습하며 어둠속에 머무를 것인가의 여부를 결정짓는 매우 중요한 의미를 갖는 선거"라며 입을 열었다.김영진 전 회장은 "자신은 기존의 전형적인 사고방식과 타성에서 벗어나 늘 새로운 것을 찾아 패배를 패배시킨다는 마음과 마치 잡초와 같은 근성으로 항상 변화의 중심에 서 있었다"고 말했다.또 "제주경제가 언제나 전국 평균을 밑돌고 비정규직 비율 전국 1위, 근로자 임금수준 전국 최하위라는 꼬리표를 언제까지 달고 있어야 하는지에 대한 고민을 잠시도 놓은적이 없었다"고 소외를 밝혔다.이어 지난 23일 통계청이 발표한 2018년 제주지역 경제소득 집계를 거론하며 "지난해 제주지역 총생산 비율이 전년 대비 0.4% 감소한것은 IMF 사태가 터졌던 1998년 이후 처음으로 발생한 일"이라며 "건설·농림어업·제조업 등 주요산업 전방위에 걸쳐 급격한 하락세를 보인 끝에 경제성장률은 전국 최저치인 –1.7%로 급락했다"고 꼬집었다.김영진 전 회장은 "그보다 더 암울한 것은 올해에도 건설경기 위축과 더불어 감귤·감자·마늘 등 주요밭작물 가격이 큰 폭으로 떨어짐으로써 지역경제가 더욱 어두워질 것이라는 전망이 대세를 이루고 있다는 점"이라고 지적했다.그러면서 "제주사회 전반에 누적된 구태를 청산하고 지역경제의 구조를 합리적으로 개편함으써 미래지향적인 제주의 새로운 위상을 구축하기 위해 이번 선거에 출마했다"고 말했다.또한 "제주의 주인은 도민이라는 본연의 가치를 더욱 공고히 함으로써 지역경제 선진화의 기틀을 다지고 무엇보다 유권자를 하늘처럼 섬기는 국회의원으로써 도민의 안정적인 소득원 창출에 매진하려고 한다"고 국회의원 출마를 결심하게 된 배경을 설명했다.그는 "우선 국회의원의 특권을 내려놓고 도민과 동행하는 행보를 펼칠 것이며 언제나 사회적 공공선을 대변한다는 마음으로 타인의 의견을 경청하고 그동안 쌓아온 노하우와 정보, 지식, 인적 네트워크 등을 활용함은 물론 지자체 등 유관기관과의 긴밀한 연결고리로 내일을 준비하는 새로운 제주의 위상을 구축해 나가겠다"고 포부를 밝혔다.김 전 회장은 제주 최대의 현안인 제2공항 문제에 대해 "기본적으로 제2공항은 필요하지만 도민 갈등해소와 공항건설에 따른 이익을 도민들에게 정당하게 돌아갈수 있는 방안에 대해 더 많은 고민을 해야한다"며 도내의 대규모 개발사업의 갈등해소를 위한 공공갈등심의조정위원회 구성을 제안했다.이어 "제주4·3의 완전한 해결, 난개발로 비롯된 쓰레기 대란, 교통 혼잡과 주차난 가중, 부동산 가격 폭등, 환경 파괴, 그리고 부의 양극화 및 외부유출, 일자리 창출, 특별자치도 제도개선 등 산적한 과제는 개인의 처지와 정파적 이해관계를 과감히 뛰어넘어 미래를 염두에 둔 범도민 차원의 이해와 양보, 타협이 필요한 시점"이라고 강조했다.또 "민생경제의 주축인 소상공인과 사회적기업의 지원을 강화하고 전기차와 신재생 에너지, 스마트 그리드, 인공지능 등과 같은 신산업을 육성함으로써 4차산업시대의 제주를 첨단산업의 테스트베드로 도약시키겠다"면서 "골목상권과 전통시장 등 지역경제의 실핏줄에 대한 지속적인 관심을 놓지 않을 것"이라고 천명했다.특히 "제주의 오랜 상권이자 민생경제의 바로미터인 이들을 경제적인 관점에서는 물론 사회·문화·환경적인 측면에서 바라보는 사고의 전환을 담당자들에게 촉구하겠다"고 말했다.김 전 회장은 "이번 선거에서 표심으로 화답할 유권자의 선택은 단순한 세력교체를 넘어 우리의 삶을 바꾸는 제주경제의 근간을 바꾸는 선택이며 준엄한 명령이 될 것"이라면서 자신은 "유권자 여러분의 위가 아닌 옆에 서서 여러분이 괴로울 때는 제가 앞장서고 즐거운 일이 생길 때는 뒤에서 뒷바라지하는 진정한 공복의 길을 걸어가겠다"고 덧붙였다.한편 김영진 전 제주도관광협회장은 67년생 이며 제주시 한림읍 상명리 출신이다. 한림읍 금악 초등학교를 시작으로 한림중학교, 제주중앙고등학교, 제주국제대학교 관관경영학과를 졸업했다. 2011년 44세 약관의 나이로 제주도관광협회 회장 경선에서 당선되며 세간의 주목을 받았다. 이후 4번에 걸쳐 제주관광협회장으로 연임돼 제주관광 1천만시대를 열며 2019년 9월 까지 8년간 제주관광산업을 주도했다. 김영진 전 회장은 현재 무소속으로 자유한국당에 입당할 예정이며 다음주 안으로 예비후보등록을 마치겠다고 말했다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 김영진 전 제주도관광협회장 제주시갑 국회의원 출마 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자(=제주) 최근글보기 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 연말연시 12월 동백꽃 축제 보고 가볼만한 곳 &lt; 문화 &lt; 기사본문 - G밸리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사제보 회원가입 로그인 전체메뉴 버튼 ESG ESG CSR 공익재단 경제 경제일반 금융 은행/증권 보험/화재 산업 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT IT일반 게임/빅데이터 플랫폼/웹툰 스타트업 사회 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 문화일반 여행/숙박 출판/교육 생활 인사/동정/부음 오피니언 포토/영상 포토/영상 보도자료 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 연말연시 12월 동백꽃 축제 보고 가볼만한 곳 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 연말연시 12월 동백꽃 축제 보고 가볼만한 곳 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 윤선미 기자 sunmi@gvalley.co.kr 다른기사 보기 문화 기자명 윤선미 기자 입력 2019.12.29 11:00 댓글 0 사진 - 색달식당 제공 [G밸리뉴스 윤선미 기자] 연말연시 여행객들이 제주도를 찾고 있다. 12월은 겨울 제주시 시내 신산공원에서 열리는 빛으로 제주를 품다 산지천 축제 누웨마루 페스티벌 오라동 청초밭 메밀꽃축제 서귀포 제주감귤박람회 산방산이 보이는 마노르블랑 핑크뮬리축제, 모슬포 마라도 최남단 방어축제 아트제주 2019등 서귀포 한림 애월 월정리 함덕 성산 중문을 비롯한 유명한 명소들이 관광객들에게 12월 제주도 가볼만한 곳으로 손꼽히고 있다. 이중 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘색달식당 중문본점’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다. 또한 12월에는 근처 카멜리아힐 동백꽃 측제를 즐기고 가기에 완성 맞춤이다. 중문관광단지에서 차로 1분 거리에 위치해 있는데 주차장도 넓게 구비되어 있어 부담없이 세울 수 있다. 생물갈치를 사용하는 식당으로 방문객의 만족도가 높은 편이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리인 중문관광단지는 신라호텔, 롯데호텔을 비롯한 다양한 편의시설과 더불어 산방산, 중문색달해변 해수욕장, 카멜리아힐 등 주요 관광지를 한 눈에 돌아볼 수 있다. 서귀포 맛집 색달식당은 중문본점으로 다양한 메뉴를 제공한다. 단품도 있지만 세트메뉴가 인상적이다. 통갈치조림을 비롯해 갈치구이, 돌솥밥, 성게미역국 등 가성비 좋은 세트를 통해서 포만감과 만족감을 한번에 잡을 수 있는 장점이 존재한다. 중문관광단지 맛집 색달식당 중문본점에서는 오랫동안 운영해온 노하우가 베어 있는 통갈치조림을 자랑으로 내세우고 있다. 냉동이 아닌 싱싱한 생물갈치를 사용하는데 식감은 물론 맛에서도 비교우위에 있어 제주 중문 맛집의 면모를 보이고 있다. 또한 조림은 직원이 손질을 해줘서 편하게 먹을 수 있다. 중문 맛집 색달식당 중문본점의 영업시간은 오전 9시부터 오후 9시 30분까지며 오후 8시 30분까지 주문하면된다. 픽업서비스도 제공하고 있으니 자세한 내용은 홈페이지를 참고하면 된다. 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 저작권자 © G밸리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기기사 1 뇌영양제 브랜드 종합선호도 1위 ‘광동패스신공’… GNM포스파티딜세린, 징코플러스150 順 2 [김가람 기자의 스타트업 브런치] 투자 유치는 어떻게 진행될까? 3 [지속가능경영보고서 분석 현대차①] 수소전기차 분야 선도 탄소중립 박차… 글로벌 녹색 경제 이끌어 4 [지속가능경영보고서 분석 카카오③] ‘같이’ 성장해 사회적 ‘가치’ 창출 추진 5 GNM포스파티딜세린, 뇌영양제 브랜드 순호감도 ‘톱’… 뇌영양제 아동‧청소년도 관심↑ 6 [지속가능경영보고서 분석 삼성SDI①] 배터리 탄소발자국 측정 등 ‘선제적 기후행동’ 실시 7 외식업계 ‘1인 메뉴’ 전성시대… “혼밥족을 잡아라” 8 [김가람 기자의 스타트업 브런치] “투자유치는 처음인데요” 9 맥스퀘어, 자사 독점 수입 세정제 ‘Am Get Clean’ 환경부 인증 통과 10 금양인터내셔날, GS25 편의점 단독 ‘1865 골프공 패키지’ 출시 문화 [윤선미 기자의 G금 트렌디] 패션 업계, 지속가능성에 주목... '컨셔스 패션' 열풍 [윤선미 기자의 G금 트렌디] 내일 뭐 입지? 재택 근무 일상화 속 '편안한 출근룩' 인기 [윤선미 기자의 G금 트렌디] 옷은 사야 제 맛? 패션도 구독경제 시대... "빌려쓰고, 다시쓰고, 고쳐쓴다" 에듀윌 취업, 삼성 GSAT 모의고사 무료 배포...채용 필기 시험 합격 지원 에듀윌 7급공무원, ‘PSAT(피셋) 끝장패스’ 운영 생활 [동정] 고려대학교 안암병원 김태훈 교수, 대한비과학회 학술상 영예 [동정] 경희대학교병원 박창규 교수, 효산 학술상 수상 [동정] 경희대병원 정형외과 정덕환 교수, 한국인 최초 'ASSH' 종신회원 선정 [동정] 고려대안산병원 응급의학과 송주현 교수, 경기도지사 표창장 수상 서울성모병원 간담췌외과 유영경 교수, 대한간이식연구학회 회장 선출 하단영역 Copyright © 2022 G밸리. All rights reserved. facebook 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 금천구 가산디지털1로 205-27 가산A타워 917호 대표전화 : 070-4334-5543 팩스 : 02-853-8187 청소년보호책임자 : 최지현 법인명 : G밸리 제호 : G밸리 등록번호 : 경기 아 51429 등록일 : 2010-04-01 발행일 : 2017-10-12 발행·편집인 : 최지현 G밸리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 ESG 전체 ESG CSR 공익재단 경제 전체 경제일반 금융 은행/증권 보험/화재 산업 전체 산업일반 공기업 전자/통신 자동차/철도/항공 화학/중공업 건설/부동산 식품/제조 유통/물류 패션/뷰티 IT 전체 IT일반 게임/빅데이터 플랫폼/웹툰 스타트업/벤처 스타트업 사회 전체 사회일반 제약/바이오/병원 인터뷰 G밸리 문화 전체 문화일반 여행/숙박 출판/교육 생활 전체 인사/동정/부음 오피니언 포토/영상 전체 포토/영상 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 전 제주도관광협회장 "경제 반드시 살리겠다" &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 김영진 전 제주도관광협회장 "경제 반드시 살리겠다" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 김영진 전 제주도관광협회장 "경제 반드시 살리겠다" 기자명 이은지 기자 입력 2019.12.26 10:41 수정 2019.12.26 10:50 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 26일 제21대 국회의원 선거 제주시 갑 선거구 출마 기자회견 김영진 전 제주도관광협회장(53)이 26일 제주도의회 도민의 방에서 내년 4월 15일 치러지는 제21대 국회의원선거 제주시 갑 선거구 출마를 선언하고 있다. 이은지 기자김영진 전 제주도관광협회장(53)이 26일 내년 4월 15일 치러지는 제21대 국회의원선거 제주시 갑 선거구 출마를 선언했다.김 전 회장은 제주도의회 도민의방에서 제21대 국회의원 선거 출마 기자회견을 열고 "제주사회 전반에 누적된 구태를 청산, 미래지향적인 제주의 새로운 위상을 구축하겠다"고 강조했다.  이어 "우선 국회의원의 특권을 내려놓고 도민과 동행할 것"이라며 "4회 연임한 제주관광협회장 등을 통해 쌓은 노하우와 정보, 인적 네트워크를 활용하고 지자체 등과 긴밀한 연결고리로 제주의 내일을 준비하겠다"고 피력했다. 김 전 회장은 "이번 선거에 임하는 자세를 '제주경제, 반드시 살리겠습니다'라는 선언에 집약했다"며 "'공은 계승하고 과는 극복한다'는 심정으로 정치를 펼치고 미래세대 먹거리를 미리 준비하는 국회의원이 되겠다"고 말했다. 김영진 전 제주도관광협회장(53)이 26일 제주도의회 도민의 방에서 내년 4월 15일 치러지는 제21대 국회의원선거 제주시 갑 선거구 출마를 선언하고 있다. 이은지 기자제주지역 최대 갈등 현안인 제2공항 건설 사업과 관련, 김 전 회장은 지속가능한 제주 미래성장을 위해 반드시 추진해야 한다는 입장을 밝혔으며 자유한국당 입당 의사를 분명히 했다.  김 전 회장은 "제2공항 건설은 국책사업으로 도민 대다수가 공항 구축에 동의했다. 건설을 조속히 앞당겨 제주경제 선순환 구조를 촉진해야 한다"며 "검증된 대형투자사업 유치를 성공 시켜 숙원인 '도민 80% 고용'을 실현해야 한다"고 피력했다. 이어 "개발을 둘러싼 갈등을 해소하기 위해 가칭 공공갈등조정위원회를 구성, 참여를 끌어내겠다"며 "다음주 예비후보 등록을 거친후 자유한국당에 입당할 예정"이라고 말했다. 김 전 회장은 제주시 한림읍 상명리 출신으로 제주도생활체육수영연합회 회장과 제주도관광협회 국내여행업분과위원장 등을 거쳐 2011년 제31대 제주도관광협회장직에 선출됐다. 제34대까지 4차례 역임했고 총선 출마를 위해 지난 9월 공식 사임했다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 선거만이 2019-12-26 16:09:30 더보기 삭제하기 선거만이 이런 장난질 멈출수 있습니다. 내년 4월 선거에 절대적으로 민주당은 선거에서 떨어뜨려야 합니다. 제주 도민은 육지 데모꾼 꽁무니나 따라 다니면서 표 구걸하는 국회 의원을 원하지 않습니다. 다수의 민주당 제주 도의원들의 지역구인 제주시와 서부 지역구 땅값 떨어질 듯하니, 제주 동부 성산 공항을 갑자기 민주당 도의원들이 반대하는 황당한 짓을 하네요 인구도 적고 힘 없는 제주 동부 사람들이 또 당하네. 선거뿐입니다. 답글쓰기 2 0 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 입도 관광객 3년만에 '1500만명' 회복 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 입도 관광객 3년만에 '1500만명' 회복 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 입도 관광객 3년만에 '1500만명' 회복 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.12.26 17:46 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 전년比 6.6% 증가...외국인관광객 41% 늘어 지난 2016년 이후 3년만에 제주도 입도 관광객이 다시 1500만명을 넘어섰다. 제주특별자치도는 25일 기준 올해 제주 관광객이 1502만명으로 집계됐다고 26일 밝혔다. 이는 지난해 대비 6.6% 증가한 규모다. 내국인관광객은 1332만 명, 외국인관광객은 170만 명으로 각각 3.4%, 41.1% 증가한 것으로 나타났다. 이는 2016년 역대 최고치인 1585만 명에 이어 두 번째로 많은 방문객 수이다. 제주도는 이러한 추세라면 연말까지 1520여만 명이 입도할 것으로 예상하고 있다. 제주관광은 2017년 3월이후 사드와 관련한 중국인관광객 급감에다 2018년에는 내국인관광객까지 동반 감소하면서 침체기를 겪어왔다. 실제 제주 관광객은 지난 2016년을 정점으로 2017년 1483만명, 지난해에는 1431만명으로 2년 연속 줄어들었다. 제주도는 올해 관광객 1500만 명 시대의 재진입은 1차산업과 건설업의 부진이 이어지는 가운데 관광산업이 제주 지역경제의 활력을 이끌어낼 수 있는 중추역할을 하고 있을 것으로 기대하고 있다. 지난 16일 발표된 한국은행 제주본부의 실물경제동향에 따르면 '최근 제주경제는 소비가 관광호조로 견조한 증가세를 이어가고 고용상황도 개선되고 있다'고 평가됐다. 지난 2018년 관광조수입(잠정) 6조 5390억원을 업종별로 분석해 보면 매출액의 67%정도가 음식업, 숙박업, 소매업 등 서비스업 대부분의 사업체에서 발생하고 있었다. 내년 발표될 2019년 관광조수입은 연도별 증감상황과 3차산업 비중 확대 등을 고려할 때 7조원 수준에 육박할 것으로 제주도는 전망했다. 제주방문 관광객의 소비행태도 지역전반에 걸쳐 이루어지면서 관광으로 인한 도민체감도도 높아지고 있는 것으로 분석되고 있다. 도내 읍․면․동별 관광객 카드 소비실태를 조사한 결과, 연간 500억원이상 소비가 발생한 읍․면․동은 2012년 5개지역에서 2018년 13개지역으로 늘어났다. 개별여행 증가와 맞물려 연도별 증가추이를 감안하면 2019년도에는 더 많은 지역으로 카드소비가 확대될 것으로 보고 있다. 한편 관광전문 소비자조사 회사인 ㈜컨슈머인사이트의 '2019 여름 휴가 여행조사'에 따르면 제주가 전국 17개 광역자치단체중 4년 연속 종합만족도 1위를 기록하면서 대한민국 대표 관광지임을 확인해 주고 있다. 지난 7월 발표한 문화체육관광부의 '2018 국민여행조사'에서도 제주가 관광숙박여행부문 '전반적 만족도'에서 전국에서 수위를 차지했다. 제주관광은 올 한해 국제 네트워킹 차원에서도 가시적인 성과를 일구어냈다. 제주자치도와 UN WTO(세계관광기구)는 상호 연대를 기초로 158개 회원국에 제주관광 온라인 홍보를 추진하는 한편, 2020년 섬관광정책포럼 세미나를 공동 개최하기로 합의하는 등 제주관광의 국제 위상을 한층 높였다. 지난 9월 CNN 인터넷판에서는 제주가 아․태지역 5대 추천여행지로 선정됐으며, 또한 12월에는 글로벌 시장조사기업인 유로모니터 인터내셔널이 발표한 세계 100대 관광도시(95위)에 제주가 포함되면서 국제이미지 확산에도 일조하고 있다. 이와 같이 관광객 1500만명 시대에 걸맞은 제주관광의 경쟁력은 무엇보다 질적성장 정책에 근간을 두고 있다. 개별여행 확대, 저가관광개선 및 시장다변화를 핵심과제로 해 온라인중심으로 마케팅방식의 획기적인 전환, 고부가가치 상품개발과 지역관광 콘텐츠 개발, 송객수수료 제도 개선, 시장별(도약시장, 관심시장, 신흥시장 등) 전략적 마케팅 및 국제 직항노선 확충 등의 정책을 펼치고 있다. 제주도 관계자는 "내년 초부터 관광예산 513억원을 조기투입해서 관광환경 변화에 선제적으로 대응해 나가겠다"며 "특히, 빅데이터를 기반으로 하는 관광정책 수립과 마케팅뿐만 아니라 관광시장 위기관리 및 도민체감도와 관광객 만족도를 높이기 위한 사업을 역점적으로 추진해가겠다"고 강조했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>연말에 즐기기 좋은 갈치정식, 제주도 중문 관광단지 맛집 ‘이조은식당’에서 2022년 10월 11일(화) 구독신청 기사제보 로그인 회원가입 에너지경제 디지털 신문보기 에너지·환경 ESG 경제 머니 부동산 컨슈머 비즈니스 글로벌 정치사회 오피니언 인터뷰 기획 전기차&amp;에너지 ESG 경제 머니 부동산 컨슈머 비즈니스 글로벌 정치사회 오피니언 인터뷰 기획 검색 검색 에너지·환경 전체기사정책 글로벌 전기 수소차 신재생에너지·배터리 석유가스·자원 전력 ESG 전체기사환경·기후 재계 경제 전체기사정책 경제일반 머니 전체기사증권 금융·보험·카드 제2금융 금·은·원자재 부동산 전체기사정책 부동산시장 개발·투자 건설업계 컨슈머 전체기사식품 유통 패션 명품 여행 중기·벤처 의약·바이오 비즈니스 전체기사전지·전자·IT 자동차 조선·해운·항공 철강·기계·산전 석화·정유 통신·방송·게임 글로벌 전체기사국제정치 국제사회 국제경제·국제금융 정치/사회 전체기사정치 정책 사회 교육 전국 문화 오피니언 전체기사EE칼럼 이슈&amp;인사이트 데스크칼럼 기자의 눈 인사·동정·부고 인터뷰 전체기사파워인터뷰 화제의 인물 토론광장 전체기사포럼 좌담회 에경어워드 (재)여시재의 지성 화보 화보 에경TV 연말에 즐기기 좋은 갈치정식, 제주도 중문 관광단지 맛집 ‘이조은식당’에서 에너지경제신문   | 입력 2019.12.26 15:58 가 가 가 가 가 [에너지경제신문 송재석 기자] 제주도 서귀포 갈치조림으로 유명한 이조은식당이 친근한 내부 인테리어와 가성비를 갖춰 관광객들은 물론 현지인 사이에서도 제주 중문관광단지 맛집으로 떠오르고 있다. 이조은식당의 대표메뉴는 갈치회,통갈치구이,갈치조림까지 한 번에 즐길 수 있는 ‘갈치정식’이다. 2인 기준 60000원의 갈치정식은 주문과 동시에 준비되는 은빛깔의 싱싱한 갈치회와 통째로 구워져나오는 통갈치구이 또는 고등어구이, 그리고 갈치조림으로 구성되어 있다. 이외에도 해당 업체는 갈치정식뿐만 아니라 고등어회, 고등어구이, 고등어조림으로 구성돼있는 고등어정식과 흑돼지구이, 갈치조림,전복뚝배기로 구성된 이조은정식도 선보이고 있다. 또한 전복뚝배기, 옥돔구이, 적복죽, 갈치국, 성게국 해물전골, 토종흑돼지구이, 각종 물회 등 다양한 제주의 맛을 즐길 수 있다. 식당 근처에는 제주 퍼시픽랜드, 약천사 등이 있으며 천지연폭포 맛집, 쇠소깍 맛집, 카멜리아힐 맛집 등으로 불리기도 한다. 관심기사 박수홍, 아버지에게 폭행 당한 후 심경 드러내 전세대출 93%가 변동금리…62%는 20∼30대 "물가 안정" 강조한 이창용 총재…12일 '빅스텝' 전망 무게 &lt; 저작권자 ⓒ 에너지경제 무단전재 및 재배포 금지 / 대한민국 경제의 힘, 에너지경제&gt; 실시간 Live 11:51유안타증권, 해외주식 소수점 거래 서비스 오픈...적립식 투자도 지원11:50美 국채금리 더 오르나…"글로벌 채권시장 ‘큰 손’들 일제히 이탈 중"11:42대한상의 "탄소중립 열쇠. 기술 상용화에 달려있어"11:33현진영, 최성국-24살 연하 여자친구와 '찰칵'10:37신혜성 측 "절도는 아냐" 음주운전은 인정10:35국민의힘 당 대표, 안철수·나경원·유승민 삼국지? ‘각’은 어떻게 잡힐까10:09도로·교통·물류 산업 전문 전시회...스마트 모빌리티 물류 산업전 개막09:59강민경, 쇼핑몰 대박? 65억 건물로 이전09:29전세대출 93%가 변동금리…62%는 20∼30대09:29한화 김승연 창립 70주년 맞아 “어제의 한화를 경계하고 늘 새로워지자" 혁신 주문 랭킹뉴스 CNBC "나스닥 지수, 2년래 최저치로 폭락" '분기배당' 쏘아올린 신한금융...KB·하나·우리금융도 이달 말 ‘윤곽’ 한국전력 직원들 퇴직해도 철밥통 튼튼? 자회사로 27년간 일감 보장 [미국주식] 뉴욕증시 3대 지수 모두 뒷걸음…리비안·포드·GM 등 주가↓ GC녹십자, 3세경영·백신개발로 '토털 헬스케어' 도약 "물가 안정" 강조한 이창용 총재…12일 '빅스텝' 전망 무게 美 국채금리 더 오르나…"글로벌 채권시장 ‘큰 손’들 일제히 이탈 중" '3년 적자’ 에이블리 몸집 키우기…수익 만회할까 대형마트 ‘착한 가격 마케팅’ 연말까지 간다 삼성바이오 송도4공장 내일 가동 '세계1위' 도약 Opinion 더보기 + EE칼럼 [EE칼럼] 에너지안보 시대 에너지믹스와 탄소중립 박기서 전 대기환경학회 부회장 이슈&amp;인사이트 [이슈&amp;인사이트] '디지털' 격랑 휩싸인 은행의 미래 김한성 마이데이터코리아 이사 데스크 칼럼 [데스크 칼럼] 납품단가연동제, 상생 촉매제로 삼야야 에너지경제 이진우 성장산업부장(부국장) 기자의 눈 [기자의 눈] 롤러코스터 집값 김기령 건설부동산부 기자 \ 회사소개 인재채용 기사제보 개인정보취급방침 이메일 무단수집거부 청소년보호방침 고충처리 문의하기 ㈜에너지경제신문사(제호:에너지경제) ｜ 등록번호:서울아02241 ｜ 등록일자:2012.08.30 발행인 : 송용희 ｜ 편집인 : 임정효 ｜ 서울특별시 중구 새문안로 26, 청양빌딩 5층 발행일자 : 1989.05.26 ｜ 대표전화 : 02)850-0114 ｜ 팩스 : 02)867-0453 청소년보호책임자:박성준 Mail to : ekn@ekn.kr Copyright © 2020 에너지경제신문. All rights reserved.</t>
+  </si>
+  <si>
+    <t>새해 1월 제주도 관광 10선...놓치지 말아야 할 여행코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 새해 1월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 새해 1월 제주도 관광 10선...놓치지 말아야 할 여행코스는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.12.23 09:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, '멋진 새날을 희망하며, 엄블랑한 1월 제주' 발표 제주관광공사(사장 박홍배)는 23일 '멋진 새날을 희망하며, 엄블랑(대단하다, 엄청나다는 의미의 제주어)한 1월 제주' 라는 테마를 주제로 자연, 축제, 관광지, 음식 등 다양한 분야에서 놓치지 말아야 할 2020년 1월 제주 관광 추천 10선을 발표했다. 1. 어둠과 추위 이길 새날의 힘, 내 안에 – 성산일출축제, 펭귄수영대회+일출명소 어둠과 추위를 이겨낸 열정으로 지난 아쉬움 씻고 새날을 다짐하는 새해, 제주에서라면 더욱 특별하다. 지난해를 보내며 복을 모아 새날을 여는 성산일출축제는 주민과 관광객이 어우러지는 잔치로 끼와 흥을 풀어내기에 알맞고, 해보다 먼저 불꽃으로 밤하늘을 수놓는다. 일출봉 위에서는 물론, 일출봉주변 바닷길을 트레킹하며 맞이하는 해도 기운 충만. 새해 아침, 중문 색달 해수욕장엔 태양보다 뜨거운 이들 가득. 인간펭귄을 자처하는 이들이 한해 건강과 무병장수를 기원하며 뛰어드는 이 바다는 세계적 희귀보호종 왕바다거북의 새 생명 잉태 북방한계선이란다. 어디 그뿐이랴, 도내 곳곳 일출명소에도 좋은 기운 가득. 사계해안도로 형제섬 사이로 떠오르는 태양, 한라산 중턱 사라오름에서 만나는 일출도 잊지 못할 기억. 시내 가까이, 민오름에서의 새해맞이는 잠에서 깨어나는 도시풍경으로 자연의 위대함을 일깨우고 내 안의 기운도 일깨운다. ‣성산일출축제 : 2019. 12. 30 ~ 2020. 1. 1 / www.sunrisefestival.kr ‣서귀포겨울바다국제펭귄수영대회 : 2020. 1. 1. 10시, 중문색달해수욕장 ‣형제해안도로 : 서귀포시 안덕면 사계리 ‣사라오름 : 서귀포시 남원읍 신례리 산 2-1 ‣민오름 : 제주시 오라2동 산 28 2. 우리라는 이름이 품은 그 큰 행복들 – 설날맞이 도내 행사들 달력은 1월 1일에 새해를 시작하지만 마음은 아직 미적거린다. 말로만 하던 새해다짐, 실천으로 옮길 수 있는 기회도 바로 이날부터. 전국각지에 흩어졌던 가족들이 모여앉아 더욱 기쁘고 행복한 설날 그 귀한 시간 집에서만 보낼 수 있나. 이날만이라도 스마트폰 내려놓고 온가족이 옛 풍습과 추억에 젖어보자. 제기차기와 널뛰기 등 전통놀이는 기본, 보기보다 쉽지 않은 놀이에 몸 따로 마음 따로 웃음보는 활짝. 전통 복장과 음식 나눔, 복조리 만들기, 민속놀이 경연대회 등 곳곳에 마련된 행사들로 명절의 의미를 끌어올리자. 목관아와 민속자연사박물관은 설날당일과 다음날, 제주민속촌은 연휴내내, 설 전날과 다음날 문을 여는 국립제주박물관 등 기관별, 관광지별로 마련된 행사내용과 시간이 다르므로 가까운 곳부터 미리 확인할 것. 무엇을 하든 혼자 그 이상, 우리라는 이름으로 함께하기에 더 큰 행복이 채워질 것이다. ‣국립제주박물관  : 제주시 일주동로 17 / jeju.museum.go.kr ‣제주민속자연사박물관 : 제주시 삼성로 40 / www.jeju.go.kr ‣제주민속촌 : 서귀포시 표선면 민속해안로 631-34 / www.jejufolk.com ‣제주목관아 : 제주시 관덕로 25 / www.jeju.go.kr 3. 동백꽃 필 무렵, 짙고도 깊은 붉은 매력에 취해 – 동백꽃길 무채색의 계절에 생기를 불어넣는 겨울 꽃 동백. 사랑스러운 애기동백과 짙붉은 토종동백이 개화시기를 달리하며 제주 겨울을 밝힌다. 하지만 그 아름다움 너머 아련한 사연이 있으니 툭, 툭, 송이 째 떨어지는 토종동백은 4・3의 희생을 닮은 것. 남원읍 의귀마을 4.3길, 동백나무 구간에서 그날의 아픈 기억을 더듬으며 꽃의 생기로 치유의 힘을 얻자. 이웃한 신흥리는 300년 역사의 동백마을로 수키로의 동백가로수가 인상적이다. 마을 방문자센터에서는 식용동백기름을 활용한 식사체험, 동백오일 비누체험이 가능하다.(사전 문의 및 예약 필수) 제주의 동백은 도내 곳곳 미로에도 피어난다. 길을 찾아가는 재미에 동백의 매력이 더해지면 미로 속에서 길을 잃고도 초록 잎 사이 붉은 꽃을 찾아내는 기쁨에 걱정은 사라지고 없을 것. 바로 지금이 동백꽃 필 무렵이요, 우리 인생도 피어날 무렵. ‣의귀마을 동백나무길 : 서귀포시 남원읍 의귀리(의귀 4.3길 역방향, 의귀리 사무소, 의귀초등학교 지나 송령이골 가는 길) ‣신흥리 동백마을방문자센터 : 서귀포시 남원읍 한신로 531번길 22-1 ‣세리월드 : 서귀포시 법환상로2번길 97-17 ‣메이즈랜드 : 제주시 구좌읍 비자림로 2134-47 4. 몸과 마음 채우는 건강한 행복 – 웰니스(wellness)여행 여행의 재미를 반드시 밖에서만 찾아야 한다는 생각은 버리자. 포근한 공간, 편안한 시간 안에서 지난 시간을 정리하고 새로운 계획을 하는 것도 여행의 묘미. 분명 기다릴 때는 들뜨고 즐겁던 여행길이 조금씩 지쳐갈 때 쯤 나에게 안기는 호사 하나, 따뜻한 차와 음악. 분위기 있고 아늑한 찻집에서 차를 음미하며 미처 정리 못한 생각타래를 스르륵 풀어도 좋고 추억의 음악으로 치유를 얻어도 좋다. 내가 고른 노래에 디제이의 감성이 얹어지면 LP판의 지직거림도 정겹게 들릴 것. 지친 나에게 안기는 호사 둘은 따뜻한 물. 아로마 향 머금은 수증기가 발끝부터 온기를 끌어올리는 족욕도 좋고, 온천과 온수풀에 몸을 담그면 걱정은 훨훨 날아가고, 다가올 일은 술술 풀릴 것 같은 기분에 마음도 따끈따끈. 5. 겨울왕국의 환상적인 매력 속으로 – 겨울산 수놓은 눈꽃트레킹 겨울 한라산은 겨울왕국, 은빛 보석산 그 자체다. 날이 찰수록 시야는 선명하고 겨울햇살 아래 거대한 보석은 더욱 빛나며 자꾸만 눈에 밟힌다. 더 이상 망설일 이유가 있을까? 겨울왕국의 매력에 푹 빠져들 준비를 시작할 때. 보온병에 뜨거운 커피, 달달한 초코바만 챙기면 든든하다. 풍부한 경험으로 등반에 자신 있다면 백록담코스를, 조심스럽다면 사라오름이나 윗세오름을 골라도 좋다. 초보자는 무리하기보다 어리목에서 30분 거리 어승생악부터 도전해보자. 몸이 마음처럼 따르지 않는다면 차로 오르는 1100고지 휴게소에서의 눈꽃감상도 좋다. 단, 환한 아름다움 이면에는 언제나 위험도 있는 법. 보온성 뛰어난 옷차림, 선글라스와 아이젠 등 기본 장비는 필수. 현지상황과 통제정보는 cctv, 한라산국립공원 홈페이지를 통해 미리미리 확인하자. ‣한라산국립공원 : www.jeju.go.kr/hallasan/index.htm ‣성판악코스 : 9.6km, 4시간 30분 소요(이상 편도) 백록담까지, 관음사코스 하산가능 ‣영실코스 : 5.8km,2시간 30분 소요(이상 편도) 남벽분기점까지 ‣어승생악탐방 : 1.3km, 30분 소요(이상 편도) 6. 세계 미술의 거장들, 가까이 더 가까이 – 제주도립미술관 특별전 개관 10주년을 맞은 제주도립미술관이 특별전을 열고 있다. &lt;프렌치모던: 모네에서 마티스까지, 1850-1950&gt;는 모네, 르누아르, 밀레, 샤갈, 마티스 등 모더니즘 대표작가 45명의 작품 중 미국 브루클린 미술관의 소장 작품을 국내 최초로 공개하는 자리. 대중적 현대미술의 출발로 여겨지는 모더니즘의 전개와 미술사 혁명기를 살펴볼 수 있다. 또한 함께 진행되는 &lt;디지털로 만나는 유럽 모더니즘의 화가들&gt;에서는 VR, 미디어아트, 스마트TV, 포토존을 통해 IT기술과 접목한 거장들의 작품을 직접 체험하고 즐길 수 있고, 모더니즘 미술을 다룬 책코너도 함께 마련돼 걸작과 거장을 내 곁에 두는 느낌. 이제 미국 브루클린 미술관까지 가지 않아도 모네, 르누아르, 고흐, 세잔, 드가, 마티스등 세계적인 거장들을 만날 수 있다. 이렇게 멋진 경험을 제주행 티켓 한 장에 가능하다니 이 얼마나 멋진 일인지! ‣제주도립미술관 : 제주시 1100로 2894-78 7. 그대의 간절한 바람, 그대로 이루어지리 – 성불오름 구좌읍 송당리에 자리한 이 오름 이름의 유래는 정확하지 않다. 고려시대 이곳에 성불암이라는 암자가 있었다고도 하고, 성불천이라는 샘물도 있었단다. 누군가는 산체가, 누군가는 바위가 멀리서 보면 기도하는 모습을 닮았다고도 하니 궁금증이 일밖에. 하지만 무엇보다 정확한 것은 직접 올라 얻는 느낌 아닐까. 번영로에서 접근할 수도 있지만 그보다 인근의 관광기념품 판매소를 통하면 입구를 찾기 더 쉽다. 오름 입구에서 안내도를 확인 후 등반을 시작하자. 계속되는 오르막 때문에 슬슬 몸이 지쳐갈 때 쯤 갑자기 바뀌는 식생이 주의를 환기시키며 마치 다른 세상에 들어가는 느낌을 준다고. 흐린 날 안개가 내려앉으면 그야말로 신선의 세계로 들어가는 감상에 젖을 수 있고 맑은 날 정상에서 따라비 오름과 한라산, 보름왓과 영주산, 그리고 멀리 성산일출봉까지 전망하면 벌써 뭔가 이뤄진 것 같은 좋은 기분으로 채워질 것. 탐방 소요시간 약 40분. ‣성불오름 : 제주시 구좌읍 송당리 네비게이션 검색 : 제주시 구좌읍 송당리 2744-4(제주 민속식품 꿩 엿 전시 판매장) 8. 사계절 멋지되, 오늘 더 새롭고 멋진 – 사계리 용머리해안과 산방산을 품은 마을. 화산이 만들고 세월이 깎아낸 그 웅장하고 독특한 매력은 이미 명성이 자자하고 사계바다의 형제섬 사이로 떠오르는 일출장면 역시 명장면으로 꼽힌다. 하지만 이정도로 사계리를 설명할 수 있을까. 물 빠진 해안, 세월을 증명하듯 푸릇한 이끼와 파도가 다듬어낸 돌의 형상은 지구라기보다 차라리 우주의 어느 행성에 가깝고 전문가가 인정한 사람과 동물발자국 화석 산지로 구석기 인류의 흔적마저 품었다. 그 신비로움에 끌린 사람들을 위해 늘어선 곳곳의 멋스런 카페들은 오래된 건물을 활용하고 동굴 속으로 들어가는 등 저마다 특색을 담았고, 한옥과자점도 이색적이다. 마을을 살짝 벗어난 주슴질 탐방로는 잘 알려지지 않았지만 걷기 좋은 예쁜 길로 뜨는 중. 탐방에 40분이면 충분하고 길가에 주차장도 마련돼 있다. 요란하지 않지만 꾸준히, 하루하루 더 멋지고 새로워지는 마을 사계리를 이제야 좀 알아가는 기분. ‣사계리 : 서귀포시 안덕면 사계리 ‣주슴질탐방로(입구맞은편 주차장) : 서귀포시 안덕면 사계리 3612 9. 탐라의 탐스러운 맛, 행복이 어마어마해 – 레드향, 한라봉 따기 체험 감귤 따기 체험은 밀감만 가능하다고? 천만의 말씀. 지금 제주는 만감류의 진한 향기로 가득할 때. 감귤류 가운데서도 맛과 향이 풍부한 고급품종 한라봉과 레드향 체험은 아직까지 흔하지는 않지만 조금씩 입소문을 타고 있다. 어린아이 얼굴만 한 큼직한 과실을 직접 따는 재미에, 내손으로 수확한 과일을 소중한 사람에게 선물하는 보람도 크다. 품종마다 수확시기가 조금씩 다른데 레드향은 12월부터 시작해 1월 중순까지, 이어서 한라봉 수확이 시작된다고. 하우스에서 재배하기 때문에 추위에도 OK. 눈이 오나 비가 오나 OK. 업체에 따라 지역에 따라 수확시기, 운영방식 등이 다를 수 있으므로 사전 문의를 통해 확인 후 찾는 것이 좋다. 제주여서 가능한 추억, 그 새콤달콤함을 기억에 새기자. ‣정석원농원(레드향, 한라봉) : 서귀포시 남원읍 하례리 404-1 ‣해품은 체험농장(레드향, 한라봉) : 서귀포시 성산읍 서성일로 1073 ‣제주제라향농원(레드향): 서귀포시 표선면 하천리 410-2 10. 대접받고 싶은 선물 같은 한 상 – 정갈한 맛에 제주 정취 한 스푼 한해를 더 건강하고 씩씩하게 달리려면 좋은 음식을 잘 먹는 것도 중요하다. 그런 의미에서 새해, 새 출발의 기분으로 맛있는 한 상 선물하는 건 어떨까. 놋그릇 위에 정갈하게 올라앉은 제주식 돔베고기와 고등어김치찜. 손끝여문 주인장이 어머니의 마음으로 만들어내는 병어조림과 육전정식. 제주의 재료로 만든 서구식 요리의 비주얼에 눈 먼저 호강하는 퓨전요리점. 잘 다듬어진 제주의 옛 가옥에서, 딱 SNS감성을 자극하는 공간까지. 식당의 꾸밈새와 식탁 차림새, 맛을 갖춘 데다 가성비가 괜찮다는 게 무엇보다 반가운 소식. 올해도 힘을 주고 싶은 소중한 사람, 그리고 나 자신을 위해 투자하기에 아깝지도 크게 부담스럽지 않은 제주의 고마운 밥집들. 한편, 2020년 1월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. 문의 : 제주관광공사 지역관광처(064-740-6088).&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 우수관광사업체 부실검증 신뢰도 하락 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 우수관광사업체 부실검증 신뢰도 하락 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 우수관광사업체 부실검증 신뢰도 하락 기자명 윤주형 기자 입력 2019.12.23 17:33 수정 2019.12.23 17:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 올해 하반기 모두 20개 업체 지정 이후 1개 업체 취소1년 이내 행정처분 전력 등 확인 못해…민원 통해 알아제주도가 대한민국 관광 1번지 제주에서도 품질 높은 관광서비스를 제공하는 관광사업체를 지정하는 '제주도 우수관광사업체'에 대한 검증이 부실, 제주도 스스로 신뢰도를 스스로 떨어뜨리는 것 아니냐는 지적이 나오고 있다.올해 하반기 우수관광사업체 가운데 1곳이 행정처분을 받은 지 1년이 지나지 않은 '자격제한'업체 임에도 우수관광사업체로 지정했다가 9일 만에 해당 업체에 대한 지정을 취소한 것으로 확인됐기 때문이다.제주도는 지난 10월 29일 2019 하반기 제주특별자치도 우수관광사업체 모집 공고를 내고 관광지, 교통, 숙박, 여행업, 음식 등 5개 분야 관광사업체로부터 우수관광업체 지정 신청서를 받았다.이어 도는 1차 서류 심사 등을 거쳐 제주도 우수관광사업체 평정위원회 현장 평가 등을 통해 지난 10일 관광지 13개 업체, 교통 2개 업체, 숙박 1개 업체, 여행업 1개 업체, 음식업 3개 업체 등 모두 20개 업체를 우수관광사업체로 지정했다.우수관광사업체는 도지사 지정서 및 인증패와 홍보지원금 등을 받고, 제주도 관광정보 시스템 등 홈페이지와 SNS 홍보, 서비스 교육 지원, 우수관광사업체 홍보물 제작 혜택 등을 받을 수 있다.하지만 도는 관광사업체 지정 이후 9일 만인 지난 19일 관광지 13개 업체 가운데 1개 업체에 대한 지정을 취소하고 올해 하반기 우수관광사업체를 당초 20곳에서 19곳으로 변경했다.이는 지정 이후 서귀포 시민의 민원 제기를 통해 제주도가 해당 업체에 행정처분을 내렸던 것으로 확인했기 때문에 이뤄진 조치다.제주도 등에 따르면 해당 업체는 한국관광공사와 협의를 하지 않고 운동·오락시설을 설치하고 영업하다가 감사원 감사에 적발됐고, 이후 한국관광공사가 해당 업체를 고발했다.해당업체는 최근 대법원이 형을 확정했고, 제주도는 최근 해당 업체의 운동·오락시설 영업허가를 취소하고, 원상복구 명령을 내렸다.제주도 관계자는 "관광업체 특성상 대표자 1면이 여러 분야 사업 허가를 받아 사업을 진행하다보니, 다른 분야에서 행정처분을 받았는지 1차 서류 심사와 2차 현장 심사에서 확인하지 못한 것"이라며 "내년부터는 자격제한 업체 등을 확인할 수 있는 시스템을 도입하는 등 대책을 마련하겠다"고 말했다. 윤주형 기자 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 한길정보통신학교 물품 전달 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 한길정보통신학교 물품 전달 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 한길정보통신학교 물품 전달 기자명 고은이 기자 입력 2019.12.24 11:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 부동석)와 제주특별자치도관광협회 사업지원분과(위원장 고철원)는 23일 한길정보통신학교 '2019 행복나눔! 희망충전!' 한길예술제에 참가해 봉사활동 및 학생들에게 필요한 물품을 전달했다. 고은이 기자 rhdmsdl.euni@gmail.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국인 관광객 유치 세일즈 나섰다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 중국인 관광객 유치 세일즈 나섰다 방문단 꾸려 中국가여유연구원·여행사 등 방문 10월까지 제주 방문 중국인 88만8331명…전년동기 63.4%↑ (제주=뉴스1) 강승남 기자					| 2019-12-10 17:59 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 16일 중국발 마지막 크루즈인 코스타 아틀란티카호(8만5000t)가 제주국제크루즈터미널을 떠나고 있다. 중국 국가여유국은 지난 15일부터 한국행 여행상품에 대해 온·오프라인을 망라한 전면적인 판매 중단을 지시했다.2017.3.16/뉴스1 © News1 이석형 기자 제주특별자치도가 중국 관광시장 회복을 위한 행보에 나섰다.제주도는 제주컨벤션뷰로 등과 방문단을 꾸려 지난 5~7일 중국국책연구기관인 국가여유연구원과 베이징의 주요 여행사, 중국여행사협회 등을 잇따라 방문해 중국 관광시장 회복과 인센티브 투어 활성화 등을 협의했다고 10일 밝혔다.제주도는 이번 방문을 통해 중국 여행사 및 주요기관의 제주에 대한 관심을 이끌어냈다고 평가하고, 이들과 논의한 내용은 2020년 마케팅 전략에 반영한다는 방침이다.중국 국가여유국 직속연구기관인 중국여유연구원측은 "최근 여행이 일상화되면서 특별한 경험을 원하는 개별관광객이 많아지고 있다"며 "이같은 추세를 반영한 관광상품 개발이 필요하다"고 방문단에 제안했다.또한 중국의 관광동향 분석을 통해 제주도가 중국 인센티브 투어 유치에 필요한 자료와 유용한 조언을 제공하는데 적극 협력하기로 했다.1542개 회원사를 보유하고 있는 중국여행사협회측은 협회의 각종 행사에 제주가 참여, 홍보할 수 있는 기회를 마련해 주겠다고 했다.그 결과 오는 20일 중국 창사에서 열리는 중국여행사협회 마이스(MICE) 분과 연례총회에 제주가 참석해 중국 아웃바운드 전문 여행사들을 대상으로 제주 마이스 지원제도를 홍보할 수 있도록 하는 것에 합의했다. 이밖에 제주도 등은 베이징 소재 강휘여행사와 중국청년여행사(CYTS) 등의 주요 책임자들과의 면담을 통해 제주를 홍보했다.중국 여행사 관계자는 "제주에 대한 관심은 항상 가지고 있다. 무사증, 짧은 항공거리, 그리고 제주에서만 볼 수 있는 관광자원과 체험활동은 언제나 매력적이다"며 "개별 관광객은 물론 기업을 대상으로 인센티브 투어 목적지로 적극적으로 제주를 판매하겠다"고 답한 것으로 알려졌다.그러면서 여행사들은 "최근 중국의 해외 관광 트렌드가 기존의 일반여행 상품이 아닌 힐링, 스포츠, 특별한 체험 등 을 더한 테마형 관광을 선호하는 추세"라며 관련된 새로운 정보 제공을 요청하기도 했다. 강영돈 제주도 관광국장은 "중국은 세계 관광시장을 움직이는 거대하고 중요한 시장"이라며 "이번 방문결과를 바탕으로 중국시장 회복과 동시에 단체 관광객의 부작용을 최소화하고 개별 관광객과 기업 인센티브 투어단 유치에 마케팅 역량을 집중할 것"이라고 말했다. 한편 올해 들어 제주를 찾은 관광객은 10월 기준 88만8331명으로, 전년 동기 54만3531명보다 63.4% 증가했다. 지난 한해 제주를 방문한 중국 관광객은 66만6120명이었다. ksn@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광자원 현장체험 실시 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 관광자원 현장체험 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 관광자원 현장체험 실시 기자명 고은이 기자 입력 2019.12.22 14:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회 등반동호회(회장 박지혜·대표 이음새)는 21일 도내 관광사업체 대표 등 회원 40명과 아부오름 등 도내 관광자원 현장체험을 실시했다. 제주도관광협회 등반동호회는 제주도내 관광자원 현장체험을 통해 다양한 제주의 관광상품 개발을 촉진하기 위한 방안을 모색할 예정이다.한편 등반동호회 행사는 매월 진행되고 있으며 제주도관광협회 회원사 임직원 및 종사자 등 회원사 가족이라면 누구나 참여 가능하다. 고은이 기자 rhdmsdl.euni@gmail.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>한섬 '제주도' 공략 시동…지역민·관광객 잡는다 즐겨찾기추가 | 中文| 日文| English| 기사제보| 자본시장 산업 부동산 중기벤처 정치사회 오피니언 아하!그렇군요 지역 AI 뉴스룸 금융 | 증권 | 재테크 | 경제 | 일반 | 전체 | 자동차/운송 | 자동차소식 | 중화학 | 전자통신 | 인터넷 | 생활 | 건강 | 교육 | 일반 | 전체 | 정책 | 분양 | 재테크 | 기업 | 일반 | 전체 | 기업탐방 | 컨택센터 | 업계교육소식 | 협단체뉴스 | 중기벤처일반 | 전체 | 정치 | 사회 | 인사/부음/동정 | 전체 | 기자수첩 | 칼럼 | 기고 | 전체 | 기업심층해부 | 여의도25시 | 탐사보도 | 아하!그렇군요 | 생활경제 해피포인트 | 인사이드컷 | 노병우의 카수다 | 전체 | 정치 | 사회 | 경제 | 문화 | 칼럼기자수첩 | 엔터테인먼트 | 포토뉴스 | 공지 | 전체 | 글자크기 한섬 '제주도' 공략 시동…지역민·관광객 잡는다 내년 1월 제주시에 '더한섬하우스' 오픈 김다이 기자 | kde@newsprime.co.kr | 2019.12.10 10:09:58 [프라임경제] 한섬(020000)이 패션 블루오션인 제주도 공략에 나선다.현대백화점그룹 계열 패션전문기업 한섬은 내년 1월3일 제주자치도 제주시 오라2동에 콘셉트 스토어 '더한섬하우스(The Handsome Haus)' 제주점을 오픈한다고 10일 밝혔다.더한섬하우스 광주점 전경. ⓒ 한섬'더한섬하우스'는 한섬의 새로운 오프라인 유통 채널로 광역 상권 중심으로 선보이고 있는 콘셉트 스토어다. 더한섬하우스 제주점은 총 2개층(지하 1층~1층), 1,298㎡(394평) 규모로, 지하1층 여성 캐릭터, 1층 여성캐주얼·남성·고객 라운지 등으로 구성된다. 타임·시스템·마인 등 13개 한섬 주요 브랜드의 남녀 의류·액세서리 등 1000여 제품을 선보인다. 더한섬하우스 제주점이 들어서는 제주시 오라2동은 최근 5년간 제주도에서 인구가 가장 많이 늘어난 지역으로, 최근엔 복합관광단지 건설이 검토되는 등 제주도 내 신흥 상권으로 떠오르고 있다. 한섬 관계자는 "제주도에 IT기업과 국제학교가 들어서면서 패션·문화에 대한 고객 수요도 꾸준히 증가하고 있다"며 "특히 오라2동의 경우 인근 주거 상권과 인근에 위치한데다, 공항·제주 도심 등과의 교통 접근성도 매우 뛰어나다·고 설명했다. 한섬은 더한섬하우스 제주점을 통해 제주도 지역 고객과 외국인 관광객들을 동시에 잡겠다는 계획이다. 이를 위해 우선, 내·외국인 고객을 대상으로 개인별 취향에 맞춰 다양한 패션 브랜드 제품을 제안하는 '패션 큐레이션(curation) 서비스'를 제공한다. 또한 제주지역 주민들을 위해 편안하게 방문하고 머무를 수 있도록 매장 환경을 꾸몄다. 매장 전체를 갤러리 콘셉트로 구성했는가 하면, 각 층에 고객용 휴식 공간도 마련했다. 또한, 1층엔 171㎡(약 52평) 규모의 VIP 라운지가 조성된다. VIP 라운지에서는 음료 서비스와 함께 스타일링 클래스, 소규모 문화체험 강좌 등이 진행될 예정이다. 외국인 관광객을 위해서는 외국어 구사가 가능한 패션전문 상담원을 배치할 예정이다. 특히, 국내 상품에 부가된 내국세(부가가치세, 개별소비세)를 환급해 주는 택스 리펀드(tax refund) 서비스를 제공할 계획이다.한섬 관계자는 "더한섬하우스가 제주도 내 패션 랜드마크가 될 수 있도록 다양한 콘텐츠와 한섬만의 차별화된 서비스를 선보여 나갈 계획"이라고 말했다. 김다이 기자 kde@newsprime.co.kr 김다이 기자의 전체기사 보기 이 기사를 공유해보세요 ⓒ 프라임경제(http://www.newsprime.co.kr) 무단전재 및 재배포금지 많이 본 뉴스 여의도 25시 여야 외교부장관 경질 논란… 어대명 기류 인한 강대강 우려 속 민… [여의도 25시] 졸속 입학연령 하… 국민의힘 내 비대위 전환 움직임, 최… 경찰국 신설, 경찰회의 이후 여야 갈… 대통령실 사적채용 논란, 스노우볼… HR 봐주기 or 안전 불감증…SK하… 박우량 신안군수의 ‘진짜 신안’… + 더보기 인사이드컷 [포토] "포항 구룡포 오징어가 풍년일세" … + 더보기 회사소개| 광고/제휴문의| 찾아오시는길| 이용약관| 개인정보취급방침| 이메일 무단수집거부| 청소년보호정책| 독자권익위원회| 고객센터 (우) 07333 서울시 영등포구 여의대방로67길 9 (여의도동 44-33) 두일빌딩3층 | Tel : 02-761-6114 | Fax : 02-761-6163 상호명 : (주)프라임경제 (제호:프라임경제) | 발행인 : 이종엽 | 편집인 : 이 호 | 청소년보호관리책임자 : 정호수 인터넷신문 등록 No.서울,아00487(등록일:2008년01월04일) Copyright ⓒ 2005 프라임경제 All rights reserved. 모바일 보기</t>
+  </si>
+  <si>
+    <t>곡성군, 침실습지 생태관광 조성 위해 제주도 현장학습 실시 | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 부산경남 경기북부 광주전남 경북동부 대구경북 전북 세종대전충청 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 곡성군, 침실습지 생태관광 조성 위해 제주도 현장학습 실시 2019-12-16 13:43 add remove print link 곡성군, 침실습지 생태관광 조성 위해 제주도 현장학습 실시 곡성군(군수 유근기)이 침실습지 생태테마관광육성사업 운영협의체 20명과 함께 지난 11일부터 13일까지 제주도를 찾았다. 곡성군과 협의체는 먼저 제주생태관광지원센터를 방문했다. 제주생태관광지원센터는 행정기관, 주민, 전문가가 협력해 전국 생태관광의 모범 사례를 만들어가고 있다. 현장학습 참여자들은 센터장으로부터 성공 요인에 대한 강의를 듣고, 사업추진과정에서 궁금했던 점들을 질문하며 노하우를 전수받았다. 센터 방문 이후에는 1100고지, 물영아리, 동백동산 습지, 제주자연생태공원을 탐방하며 제주도 습지에 산재한 동식물들의 가치에 대해 이야기를 나눴다. 특히 제주자연생태공원에서 다양한 야생동물을 가까이에서 관찰하며 곡성군 침실습지 생태관광의 중요성과 가능성을 모색했다. 곡성군 관광과 신동준 과장은 “침실습지의 다양한 자원을 생태관광화할 수 있도록 운영협의체 위원들께서 꾸준하게 관심을 갖고 참여해주실 것”을 당부했다. 곡성군 침실습지 생태관광 유근기 곡성군수 home 노해섭 기자 nogary@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
+  </si>
+  <si>
+    <t>제주도·유엔세계관광기구 내년 섬관광정책 공동세미나 개최 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도·유엔세계관광기구 내년 섬관광정책 공동세미나 개최 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도·유엔세계관광기구 내년 섬관광정책 공동세미나 개최 송고시간2019-12-05 12:18 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 제주특별자치도청 현판 [연합뉴스 자료 사진] (제주=연합뉴스) 고성식 기자 = 제주도는 내년 5월 제주에서 유엔 세계관광기구(UN WTO)와 함께 '섬관광정책(ITOP) 국제정책세미나'를 연다고 5일 밝혔다. 섬관광정책포럼은 섬 지역의 공동 관광진흥과 발전을 위해 1997년 제주에서 하이난, 발리, 오키나와 등 4개국 지방정부가 창설한 기구다. 현재 푸껫, 세부, 페낭, 하와이 등 10곳이 회원으로 참여하고 있다. 도는 지난 6월 부탄에서 열린 유엔 세계관광기구 지역 콘퍼런스, 지난 10월 중국 계림에서 열린 제13회 유엔 세계관광포럼을 통해 ITOP 공동 개최를 제안했다. 광고 내년 제주 ITOP에는 총 10개국 섬 지역 지방정부가 참가해 지속 가능과 지역관광 등에 대해 논의할 예정이다. 도 관계자는 "유엔 세계관광기구와 공동 주최를 통해 섬관광정책포럼 참여국 등 저변이 더 확대될 것으로 기대한다"고 말했다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/12/05 12:18 송고 #섬관광정책포럼 #유엔 #공동 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 24 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 통문어, 통갈치조림으로 중문맛집 등극 2022.10.11 (화) 즐겨찾기 전체기사 LOGIN JOIN 정치 정당/국회 청와대/외교 국방 정가동정 21대 총선 지방의회 지역소식 인서울 경인권 호남권 영남권 충청권 부산 사회 사건/사고 생활 교육 복지 노동 환경/교통 푸드/음료 인터넷 이슈 코로나19 포토뉴스 국제 문화 공연/전시/영화 여행/레저 도서 종교 애니메이션 게임 경제 IT 금융 기업 부동산 가계 증권 유통 무역 생활 공무원 인터뷰 국회의원 자치단체장 지방의원 상공인 기타 오피니언 어떻게 지내십니까? 편집국장, 만나다 고하승 칼럼 세상사는이야기 칼럼 기고 기자칼럼 현경병, 할말은 한다 시민만평 인사/동정/부고 기획/시리즈 시민의소리 특별기고 스포츠 야구 축구 농구 골프 기타 연예 영화 방송 음악 연예가소식 뷰티/패션 신년사 핫이슈 시사교양 대중문화 스포츠 정치 정치[속보]법원, 이준석 신청한 '정진석 비대위' 직무정지 가처분 기각... 김현숙 장관 “여가부, 다른 부처와 통합되는 게 더 효율적” 김문수 “미조직 노동자들 목소리에 귀 기울일 것” &lt;국감 현장&gt; 尹 정부 첫 국감, 정책 실종 정쟁만 난무 서해피살, 文 서면조사 요구에 반발 민주 1인시위 릴레이 가동 홍준표, "연탄가스 정치" 유승민-이준석 맹공 北, 동쪽으로 미상의 탄도미사일 발사 최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나" 尹대통령 비속어 논란 놓고 홍준표 유승민 엇갈린 행보 尹 대통령, 민주당 단독처리 ‘박진 해임건의안’ 거부 서삼석 의원“ 연륙 섬지역 택배, 추가배송비 폐지”이끌어 민주당 전남도당 신임 사무처장에 김유승(현) 광주시당 처장 발령 김회재 의원, 원희룡 국토부장관 만나 SRT 전라선 투입 등 적극 지원 요청 지방의회 지방의회성동구의원들, 제269회 정례회서 구정질문 인천시 강화군의회, 지방의회 인사권 독립 후 첫 승진 인사 의결 염종현 경기도의장, “道·道교육청 올 2차 추경 신속 처리해야” 강동구의회 김남현 부의장, 명일근린공원 내 강동숲속도서관 착공식 참석 조동탁 강동구의장, 서울시·서울강동농협이 함께하는 치유농업센터 개장식 참석 안지연 강남구의원, 2022 대한민국 자치발전 대상 기초부문 수상 강남구의회,‘ 2022 제11회 강남구 아름다운 건축물 시상식 ’참석 이향숙 강남구의원, 2022 대한민국 자치발전 대상 기초부문 수상 서초구의회, 전체 의원 대상 부패방지 교육 실시··· 청렴하고 부패 없는 의회 조... 용인특례시의회, 제16회 경기도장애인생활체육대회 2022 용인 개회식 참석 평택시의회 김명숙 의원, 수소 안전성 관련 간담회 개최 합천군의회, 「두무산 양수발전소」 유치 관련 우수 기관 견학 제9대 부산광역시의회 전반기 의정자문위원회 출범 지역소식 인서울 경인권 호남권 영남권 충청권 부산 “AI 가상인간, 강진군 소식 방송” 강진군, 도시공학자 정 석 교수 특강 개최 매일요가 인천청라점, 신규 오픈 기념 이벤트 진행 성동구청, 가치공간과 함께 서울숲 2022 성수 도시재생축제 ‘꽃길만 걸어요’ 플... 푸드어셈블, 을지다락 신메뉴 밀키트 2종 출시 ‘MZ세대 취향 저격’ 송파구시설관리공단, 공부문 인적자원개발 우수기관 선정 강기정 광주광역시장 “베트남과 AI 중심 경제, 인적·문화 교류 활력 기대” 강동선사문화축제 ‘야간 빛 축제’ 16일까지 운영 구립은평뉴타운도서관, 어린이자료실배 ‘(다시 돌아온) 내일은 빙고왕!’성료 구립은평뉴타운도서관, ‘함께 만나는 미디어 놀이터’ 운영 서초구 서초4동, 15일 '제21회 서초4동 어린이 그림그리기 대회'... 은평구, 은평을 빛낸 ‘제42회 은평대상’ 수상자 시상··· 효행상 등 5명 서초구, 주민들의 일상을 조속하게 회복하는 ‘일상회복 100일 프로젝트’ 마무리 사회 사건/사고 생활 교육 복지 노동 환경/교통 푸드/음료 인터넷 이슈 코로나19 자코모(JAKOMO), 신제품 리클라이너 체어 4종 선봬 린클, 11일 SK스토아 방송서 음식물처리기 선보여 강진군, 정신건강의 날 기념 캠페인 펼쳐 한국열린사이버대학교 평생교육원 ‘보육교사 직무 과정’ 놀이 중심 인성프로그램 추가... 대전자동차정비학원, 전기내선공사 및 자동차정비산업기사 국비지원 모집 강기정 광주광역시장 “기후위기는 만성질병…국제 연대 강화” 유실·유기동물의 가족이 되어주세요 광주광역시, 교통유발부담금 30% 경감 대구 뷰티풀웨딩박람회, 대구 엑스코 인터불고호텔에서 양일간 개최 강진군, 드론 교육으로 첨단 미래농업 기반 구축 K-디저트가 궁금한 청년, 강진 청년지원센터로 오세요 제43회 흰지팡이의 날 기념식 개최 광주광역시 농업기술센터, 빛고을농업대학 졸업식 개최 포토뉴스 포토뉴스강기정 광주광역시장, 제34주기 안병하 치안감 추모식 참석 강기정 광주광역시장, 광주FC 홈폐막전 우승 시상식 참석 강남구, 마루공원 그린 콘서트 성료 강남구, 제11회 아름다운 건축물 전시회 시상 강기정 광주광역시장 제103회 전국체육대회 개회식 참석 문영훈 광주광역시 행정부시장, 한팡밍 중국전국정협외사위원회 부주임 접견 강기정 광주광역시장, 아트광주22 개막식 참석 강기정 광주광역시장, 제30회 광주여성대회 참석 용산구, 설운도씨 홍보대사 위촉 포천시 영북면 지역사회보장協, 마을벽화 그리기 봉사 중랑구, 지역치안협의회 개최 박강수 마포구청장, 현장구청장실 운영 금천구, 내년 주민참여예산 사업 선정 HOME &gt; 문화 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 통문어, 통갈치조림으로 중문맛집 등극 고수현 기자 / smkh86@siminilbo.co.kr / 기사승인 : 2019-12-21 11:00:00 국내 여행지 가운데 제주도는 깨끗한 바람과 함께 이색적인 풍경과 먹거리 등이 풍부해 몸과 마음을 힐링시킬 수 있는 시간이 가능하다. 또한 12월에는 카멜리아힐 동백꽃 축제도 여행객들에게 주목받는 축제이다.소중한 가족과 친구, 연인과 함께 때 묻지 않은 자연 속에서 즐기는 휴식과 낭만과 함께 쏟아지는 밤하늘의 별빛을 바라보며 오순도순 이야기꽃을 피우거나 다 함께 음식을 함께 나눠먹는 소중한 기억은 여행에서만 얻을 수 있는 소중한 추억이다.이러한 중문관광단지 인근에는 관광하며 허기진 배를 채울 수 있는 음식점도 즐비한데 그중 제주 중문 맛집 ‘색달식당 중문본점’이 영양소가 풍부함은 물론 최근 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 눈길을 끌고 있다.게다가 생물갈치를 사용하면서 신선함은 물론 쫀득한 식감까지 살려 먹는이들의 만족감을 높이고 있다. 제주도 맛집답게 단품도 있지만 가성비 좋은 세트메뉴가 있어 남녀노소 불문하고 누구나 편하게 즐길 수 있는 장점이 있다.중문관광단지 맛집 색달식당에서는 오랫동안 운영해온 노하우가 베어 있는 통갈치조림을 자랑으로 내세우고 있다. 냉동이 아닌 싱싱한 생물갈치를 사용하는데 식감은 물론 맛에서도 비교우위에 있어 제주 중문 맛집의 면모를 보이고 있다. 또한 조림은 직원이 손질을 해줘서 편하게 먹을 수 있다.중문관광단지에서 차로 1분 거리에 위치해 있는데 주차장도 넓게 구비되어 있어 부담없이 세울 수 있다. 생물갈치를 사용하는 식당으로 방문객의 만족도가 굉장히 높은 편이다. 공항에서 45분 거리, 서귀포 시내에서 20분 거리인 중문관광단지는 신라호텔, 롯데호텔을 비롯한 다양한 편의시설과 더불어 산방산, 중문색달해변 해수욕장 등 주요 관광지를 한 눈에 돌아볼 수 있다.제주 색달식당 관계자는 “제주도 요리는 섬 지역 특유의 풍성한 해산물 코스요리가 주목을 받고 있다. 요리마다 사용하는 어종이 다양하고 해산물의 깊은 향이 배어 나오기 때문에 식욕을 올려주는 별미 요리로 평가를 받는다. 특히 제주도갈치조림은 제주 특산의 은갈치를 사용해 살이 풍성하며, 오랜 시간 졸여 알싸하고 매콤한 조림의 맛이 갈치에 깊게 스며들어 더욱 맛있다”고 말했다.착한 가격에 메뉴 구성이 좋기 때문에 식당을 찾아온 손님들의 만족도가 높은 편이다. 정성이 담긴 맛과 친절함까지 겸비하고 있는 서귀포 맛집 색달식당이기 때문에 기존 고객들의 재방문도 많이 이뤄지고 있다고 관계자는 전하고 있다.관광단지 근처에 있는 중문 맛집 색달식당은 아침 일찍 영업을 시작하기 때문에 아침식사로 즐기기 좋은 곳이다. 영업시간은 오전 9시부터 오후 9시 30분까지이며 마지막 주문은 오후 8시 30분이다. [저작권자ⓒ 시민일보. 무단전재-재배포 금지] 고수현 기자 기자의 인기기사 많이 본 뉴스 서대문구, 홍제천생명의 축제 열려[시민일보 = 홍덕표 기자] 홍제천생명의 축제가 오는 24일과 25일 연가교 특설무대에서 열린다. 코로나19로 2년간 중단됐던 홍제천생명의 축...홍덕표 2022-09-20GS건설 시공 아파트 건설현장서 사망 사고[시민일보 = 여영준 기자] 인천 작전동 한 아파트 공사 현장에서 60대 노동자가 공사용으로 설치된 계단에서 추락해 숨지는 사고가 발생했다. 5...여영준 2022-10-052022 안성시 바우덕이 축제, 전통 분위기 물씬[안성=오왕석 기자] 안성시(시장 김보라)가 오는 30일부터 열릴 2022 안성맞춤 남사당 바우덕이 축제에서 우리 전통문화를 계승하기 위해 한복...오왕석 2022-09-28추미애의 자충수주필 고하승국가 시스템은 함부로 손대는 게 아니다.문재인 정권 당시 추미애 법무부 장관은 검찰총장의 수사지휘권을 박탈했다. 그리고 법무부 장관이...고하승 2022-09-20강남구, ‘2022 가로수길 디자인위크’ 개최[시민일보 = 이대우 기자] 서울 강남구(구청장 조성명)가 신사동 가로수길의 160개 업체가 참가하는 ‘2022 가로수길 디자인위크’를 오는 1...이대우 2022-09-29영등포구, 6~8일 안양천서 지등 불빛 축제[시민일보 = 여영준 기자] 영등포구(구청장 최호권)는 6~8일 3일간 안양천 벚꽃길 약 150m 일대에서 ‘제1회 영등포 지등 불빛 축제’를 ...여영준 2022-10-05성남시, 시민의 날 맞이 ‘드론 라이트 쇼’ 6일 개최[성남=오왕석 기자] 성남시는 오는 10월 6일 오후 8시 분당구 야탑동 탄천종합운동장에서 시민의 날 맞이 ‘드론 라이트 쇼’를 개최한다. 오는...오왕석 2022-10-02광진구, 24일 행복대잔치 광나루 어울마당[시민일보 = 여영준 기자] 서울 광진구(구청장 김경호)가 오는 24일 천호대로 터널 위에 조성된 광진 숲나루에서 ‘제11회 광나루 어울마당’을...여영준 2022-09-21최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나"[시민일보 = 전용혁 기자] 국민의힘 최승재 의원이 4일 "최근 한국여행업협회장 소유 회사(세방여행)과 그 동생회사(세방S&amp;C)...전용혁 2022-10-042022 안성맞춤 남사당 바우덕이 축제 개최 기대[안성=오왕석 기자] 안성시에서는 오는 9월 30일부터 10월 3일까지 나흘간 진행되는 ‘2022년 안성맞춤 남사당 바우덕이 축제’를 안성맞춤랜...오왕석 2022-09-12 뉴스댓글 &gt; Please enable JavaScript to view the comments powered by Disqus. 주요기사+ 北, 동쪽으로 미상의 탄도미사일 발사 尹 대통령, 민주당 단독처리 ‘박진 해임건의안’ 거부 이재명 “외교 참사의 책임을 묻겠다...개헌 특위도 제안” 野 박홍근-김성환, ‘尹 비속어 논란’ 총공세 많이 본 기사 종합 핫이슈 1.GS건설 시공 아파트 건설현장서 사망 사고2.영등포구, 6~8일 안양천서 지등 불빛 축제3.최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나"4.[로컬거버넌스] 경남 산청군, 산청한방약초축제 개막5.[로컬거버넌스] 서울 중랑구, 용마폭포문화예술축제 8일 개막 1.'박결' 누구?... 사생활 루머 논란 속 일상의 아우라 '매력 발산'2.유현주 '실제 나이는?'... 미녀 골퍼의 팔색조 매력 '안구 정화'3."금연과 금주를 하루도 못 했다"... 최강희 솔직한 고백의 의미는?4.송가인 남다른 팬사랑... 데뷔 10주년 맞아 선보이는 행사는?5.블핑·에스파 이을 차세대 한류 걸그룹은?... 오앤오 A.iRiD(에이리드) 눈길 인터뷰 / 칼럼+ [인터뷰] 박진식 세종병원 이사장 ‘정도 의료’ 강조문찬식 2022-09-02 [로컬거버넌스] 경기 고양시, 세계태권도품새선수권대회 오는 21일 개막이기홍 2022-04-17 임영수 도의원, 새로운 미래 보성군수 도전 뜻 밝혀황승순 2022-03-16 기획/시리즈 [로컬거버넌스] 서울 중랑구, 용마폭포문화예술축제 8일 개막 [로컬거버넌스] 서울 노원구, ‘2022 노원 탈축제’ 8·9일 개최 [로컬거버넌스] 경남 산청군, 산청한방약초축제 개막 [로컬거버넌스] 서울 강동구, 반려동물 복지정책 시행 신문사소개 | 개인정보취급방침 | 이용약관 | 청소년보호정책 | 기사제보 | 제휴문의 | 고충처리인 | 공지·사고 서울특별시 영등포구 국회대로 70길 15-1, 607호~611호(여의도동, 극동브이아이피빌딩) 제   호 : 시민일보 | 정기간행물번호 : 서울, 가00028 | 등록일 : 2001-10-08								| 대표전화 : 02) 3676-2114 | FAX : (02) 762-8223 발행인 : 임무창 | 편집인 : 임무창 본 콘텐츠의 저작권은 시민일보 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 시민일보 All rights reserved. | email : ksykjd@siminilbo.co.kr</t>
+  </si>
+  <si>
+    <t>제주도 직영관광지 장애인 차별 금지 추진 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 직영관광지 장애인 차별 금지 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 직영관광지 장애인 차별 금지 추진 기자명 김지석 기자 입력 2019.12.12 16:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김경미 의원. (자료사진)김경미 의원, '제주도 도립미술관 설치 및 운영 조례' 개정안 대표 발의제주도내 직영관광지에서 장애인에 대한 차별행위를 금지하는 조례 개정이 추진된다.더불어민주당 김경미 의원(비례대표)은 '제주도 도립미술관 설치 및 운영 조례 일부개정조례안'을 대표 발의했다.이번 개정안은 관람 및 매표시간 조정, 대관기준, 차별행위금지에 대한 내용 등을 골자로 하고 있다.세부적으로 미술관의 개관시간을 전국의 도립미술관에 맞춰 애초 오전 9시에서 10시로 변경해 내실 있는 개관준비를 할 수 있도록 했고, 시설관리업체 직원들의 근로기준법에 부합한 근무여건을 고려했다.일부 직영관광지에서 시각장애인들의 보조견 동반을 거부한 사례가 있어 '장애인복지법' 등에 근거해 차별행위 금지에 대한 부분도 규정하고 있다.김경미 의원은 "도내 34개소의 직영관광지 중 일부 직영관광지에서 시각장애인들의 보조견 입장불가에 대한 사례가 SNS를 통해 드러나고 있어 장애인 차별 금지에 대한 근거 조항을 마련하게 됐다"고 조례 개정 취지를 밝혔다.이번 개정안은 오는 18일부터 열리는 제379회 임시회에서 처리될 예정이다. 김지석 기자 김지석 기자 kjs@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '베스트 관광인'에 문영찬-김태민 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 '베스트 관광인'에 문영찬-김태민 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 '베스트 관광인'에 문영찬-김태민 선정 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.12.14 11:58 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석) 지난 12일 제주종합비지니스센터 3층 대회의실에서 '칭찬합시다' 이달의 베스트 관광인을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다. 이번 10월의 베스트 관광인으로 선정된 장춘육당 문영찬 실장은 식당에 방문한 관광객들에게 최고의 요리를 대접하기 위해 식재료의 신선도와 음식 조리 과정에 있어 청결함을 각별히 주의하고, 20여년의 경력을 살려 다양한 메뉴를 개발하며 도내 외식업 경쟁력을 강화하는데 힘쓴 점이 높이 평가됐다. 11월의 베스트 관광인으로 선정된 우도동굴레저 김태민 대표는 우도를 찾는 관광객들에게 볼거리, 즐길거리 등 서비스를 발굴하고 제공하여 우도의 경쟁력을 높이는데 힘쓰고 있다. 특히, 보트를 이용한 우도 관광 상품을 이용해 우도의 경관을 소개하며 친절한 서비스로 관광객의 재방문율을 높이는 데에 기여한 점이 높이 평가됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광 홍보 서포터즈 6명 위촉 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 관광 홍보 서포터즈 6명 위촉 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회, 관광 홍보 서포터즈 6명 위촉 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.12.08 13:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회는 ‘제주 관광 크리에이터 아카데미’ 우수 수료자 6명을 제주 관광 홍보 서포터즈로 위촉했다고 8일 밝혔다. 지난 7일 아카데미 수료식을 개최한 관광협회는 ‘3분안에 볼 수 있는 제주의 3계절’ 콘텐츠를 선보인 김상민(24)씨를 최우수상으로 선정했다.  또 ▲우수상 남주고등학교 이형빈, 노형초등학교 이채원 ▲장려상 함덕초등학교 김요한, 제주국제대학교 이수연, NLCS 신지수 등이 선정됐다.  우수하게 교육 프로그램을 이수한 6명은 제주 관광 홍보 서포터즈로 위촉됐다.  아카데미는 급변하는 온라인 관광 시장에 대응하기 위해 도내 초·중·고·대학생을 대상으로 5주간 진행됐다.  참가자들은 1인 크리에이터가 돼 소프트웨어 등을 활용해 콘텐츠를 직접 제작했다.  부동석 관광협회장은 “초등학생 장래희망 직업 5위에 유튜버가 거론되는 등 유튜브에 대한 영향력이 커지고 있다. 유튜브 등을 활용한 다양한 제주 관광 홍보를 통해 관광객 유치에 최선을 하하겠다”고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>겨울여행지로 떠오르는 제주도, 중문 관광단지 맛집 ‘이조은식당’ 주목 2022년 10월 11일(화) 구독신청 기사제보 로그인 회원가입 에너지경제 디지털 신문보기 에너지·환경 ESG 경제 머니 부동산 컨슈머 비즈니스 글로벌 정치사회 오피니언 인터뷰 기획 전기차&amp;에너지 ESG 경제 머니 부동산 컨슈머 비즈니스 글로벌 정치사회 오피니언 인터뷰 기획 검색 검색 에너지·환경 전체기사정책 글로벌 전기 수소차 신재생에너지·배터리 석유가스·자원 전력 ESG 전체기사환경·기후 재계 경제 전체기사정책 경제일반 머니 전체기사증권 금융·보험·카드 제2금융 금·은·원자재 부동산 전체기사정책 부동산시장 개발·투자 건설업계 컨슈머 전체기사식품 유통 패션 명품 여행 중기·벤처 의약·바이오 비즈니스 전체기사전지·전자·IT 자동차 조선·해운·항공 철강·기계·산전 석화·정유 통신·방송·게임 글로벌 전체기사국제정치 국제사회 국제경제·국제금융 정치/사회 전체기사정치 정책 사회 교육 전국 문화 오피니언 전체기사EE칼럼 이슈&amp;인사이트 데스크칼럼 기자의 눈 인사·동정·부고 인터뷰 전체기사파워인터뷰 화제의 인물 토론광장 전체기사포럼 좌담회 에경어워드 (재)여시재의 지성 화보 화보 에경TV 겨울여행지로 떠오르는 제주도, 중문 관광단지 맛집 ‘이조은식당’ 주목 에너지경제신문   | 입력 2019.12.13 17:26 가 가 가 가 가 [에너지경제신문 송재석 기자] 올 해를 마무리하기 좋은 여행지로 제주도가 인기다. 제주도 관광지 중에서도 제주도 중문 관광단지는 중문해수욕장을 비롯해 천제연폭포, 여미지 식물원 등 볼거리와 놀거리가 충분하며, 여러 고급 숙박시설까지 자리해 단기는 물론 장기 여행에도 적합하다는 평이 많다. 이런 가운데 중문 관광단지 인근에는 이조은식당이 제철을 맞아 살찌고 맛도 좋아진 갈치를 활용한 요리를 선보이며 맛집으로 떠오르고 있다. 이 곳은 2대째 이어온 서귀포 갈치조림으로 갈치조림과 함께 갈치 회, 갈치구이를 다루며, 이를 보다 합리적으로 맛볼 수 있는 정식 메뉴도 판매하고 있다. 제주도 맛집 베스트 10 대표 메뉴는 갈치 회, 갈치조림을 기본으로 제공하면서 갈치구이와 고등어구이 중 하나를 선택해 총 세가지 메뉴를 즐길 수 있게 한 갈치 정식으로, 이 밖에도 네가지 정식 메뉴와 스페셜 메뉴 한 가지를 선보이고 있다. 이 외에도 1인, 혹은 2인이서 주문할 수 있는 식사류를 다루고 있다. 갈치조림과 고등어조림은 2인이서 즐길 수 있는 대표 식사류로, 그 밖에 고등어구이, 전복뚝배기, 전복죽, 성게국, 갈치덮밥, 한치회덮밥 등 해산물을 주재료로 한 메뉴를 다양하게 판매한다. 이조은식당 관계자는 “갈치조림과 갈치 회를 비롯해 다양한 갈치 요리를 저렴하게 제공하고 있는데 이같은 합리적인 가격과 정성 담아 맛을 한껏 살린 요리들로 제주도민과 제주 중문관광단지를 찾는 관광객들로부터 입소문을 타 중문관광단지 맛집으로 알려지고 있다. 제주도에 거주하는 연예인도 자주 방문한다”고 전했다. 이조은식당은 가까이에 위치한 여러 관광지때문에 천지연폭포 맛집, 쇠소깍 맛집, 카멜리아힐 맛집, 표선해수욕장 맛집, 중문색달해수욕장 맛집, 화순금모래해수욕장 맛집 ,제주도 애월 맛집 등 다양한 수식어로 불리고있다. 해당 식당에서 멀지 않은 곳에는 금능해수욕장 , 한림공원 , 테마파크 , 성이시돌목장 , 비양로 , 금오름 , 협재해수욕장 , 새별오름 , 곽지해수욕장 , 제주양떼목장 ,렛츠런파크 , 제주공룡랜드 , 항파두리 항몽유적지 등이 있다. 관심기사 박수홍, 아버지에게 폭행 당한 후 심경 드러내 전세대출 93%가 변동금리…62%는 20∼30대 "물가 안정" 강조한 이창용 총재…12일 '빅스텝' 전망 무게 &lt; 저작권자 ⓒ 에너지경제 무단전재 및 재배포 금지 / 대한민국 경제의 힘, 에너지경제&gt; 실시간 Live 11:51유안타증권, 해외주식 소수점 거래 서비스 오픈...적립식 투자도 지원11:50美 국채금리 더 오르나…"글로벌 채권시장 ‘큰 손’들 일제히 이탈 중"11:42대한상의 "탄소중립 열쇠. 기술 상용화에 달려있어"11:33현진영, 최성국-24살 연하 여자친구와 '찰칵'10:37신혜성 측 "절도는 아냐" 음주운전은 인정10:35국민의힘 당 대표, 안철수·나경원·유승민 삼국지? ‘각’은 어떻게 잡힐까10:09도로·교통·물류 산업 전문 전시회...스마트 모빌리티 물류 산업전 개막09:59강민경, 쇼핑몰 대박? 65억 건물로 이전09:29전세대출 93%가 변동금리…62%는 20∼30대09:29한화 김승연 창립 70주년 맞아 “어제의 한화를 경계하고 늘 새로워지자" 혁신 주문 랭킹뉴스 CNBC "나스닥 지수, 2년래 최저치로 폭락" '분기배당' 쏘아올린 신한금융...KB·하나·우리금융도 이달 말 ‘윤곽’ 한국전력 직원들 퇴직해도 철밥통 튼튼? 자회사로 27년간 일감 보장 [미국주식] 뉴욕증시 3대 지수 모두 뒷걸음…리비안·포드·GM 등 주가↓ GC녹십자, 3세경영·백신개발로 '토털 헬스케어' 도약 "물가 안정" 강조한 이창용 총재…12일 '빅스텝' 전망 무게 美 국채금리 더 오르나…"글로벌 채권시장 ‘큰 손’들 일제히 이탈 중" '3년 적자’ 에이블리 몸집 키우기…수익 만회할까 대형마트 ‘착한 가격 마케팅’ 연말까지 간다 삼성바이오 송도4공장 내일 가동 '세계1위' 도약 Opinion 더보기 + EE칼럼 [EE칼럼] 에너지안보 시대 에너지믹스와 탄소중립 박기서 전 대기환경학회 부회장 이슈&amp;인사이트 [이슈&amp;인사이트] '디지털' 격랑 휩싸인 은행의 미래 김한성 마이데이터코리아 이사 데스크 칼럼 [데스크 칼럼] 납품단가연동제, 상생 촉매제로 삼야야 에너지경제 이진우 성장산업부장(부국장) 기자의 눈 [기자의 눈] 롤러코스터 집값 김기령 건설부동산부 기자 \ 회사소개 인재채용 기사제보 개인정보취급방침 이메일 무단수집거부 청소년보호방침 고충처리 문의하기 ㈜에너지경제신문사(제호:에너지경제) ｜ 등록번호:서울아02241 ｜ 등록일자:2012.08.30 발행인 : 송용희 ｜ 편집인 : 임정효 ｜ 서울특별시 중구 새문안로 26, 청양빌딩 5층 발행일자 : 1989.05.26 ｜ 대표전화 : 02)850-0114 ｜ 팩스 : 02)867-0453 청소년보호책임자:박성준 Mail to : ekn@ekn.kr Copyright © 2020 에너지경제신문. All rights reserved.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 롯데관광개발, 제주도내 대학들과 ‘손 잡기’ 마무리 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 롯데관광개발, 제주도내 대학들과 ‘손 잡기’ 마무리 김형훈 승인 2019.12.08 13:54 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 10월 이후 5개 대학과 산학협력 업무협약 3100명 고급 일자리 창출 프로그램 가동 [미디어제주 김형훈 기자] 롯데관광개발이 3100명 고급 일자리 창출을 위해 제주 도내 5개 대학과 산학협력 업무 협약을 모두 완료했다. 롯데관광개발㈜ 그랜드 하얏트 제주(이하 롯데관광개발)는 지난 4일과 5일 한국폴리텍대학 제주캠퍼스(학장 현창해)와 제주관광대학교(총장 김성규)와 잇따라 우수인력 양성 및 상호발전을 위한 산학협력 업무협약을 체결했다고 8일 밝혔다. 이번 업무협약에서 롯데관광개발과 해당 학교는 ▲인턴십 및 취업지원 ▲지역사회 발전을 위한 공동사업 발굴 및 홍보 ▲기타 상호 협의에 따른 사항 등에서 적극적인 협력체제를 구축하기로 했다. 롯데관광개발은 이들 학교에 앞서 지난 10월 11일 제주대학교를 시작으로, 10월 26일에는 제주국제대, 지난 11월 13일에는 제주한라대와 각각 업무협약을 체결했다. 롯데관광개발은 지난달 270명 규모의 관리자급 경력직 모집에 나선 데 이어 이달 중으로 2700명에 이르는 신입 사원 및 주임급 경력직 공개 채용에 나설 예정이다. 롯데관광개발 김진희 인사총괄 상무는 “제주 도민의 우선 채용을 위해서는 인재양성과정부터 적극적인 협력이 필수적”이라면서 “맞춤형 교과과정 프로그램을 개발하고 인턴십 제도를 최대한 활용하는 등 실질적인 산학협력 체제를 가동할 계획”이라고 밝혔다. 한편, 롯데관광개발은 내년 3월 제주 드림타워 복합리조트 준공과 함께 본사 이전 절차를 마무리하고 1600개 객실 및 11개 레스토랑과 바, 호텔부대시설, 쇼핑몰 등 전체 복합리조트 시설을 독자적으로 운영할 예정이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 - 뉴스프리존 × 전체기사 기획 전체 특집 인터뷰 오피니언 전체 사설 칼럼 연재 기고 기자수첩 뉴스종합 전체 정치 사회 동영상뉴스 이달의이슈 인사 부고 경제 전체 종합 금융 유통·소비자 기업 IT 자동차 건설·부동산 제약·바이오 특집 지역 전체 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 전체 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 전체 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 전체 스포츠 연예 골프투데이 포토뉴스 전체 포토 프리존 만평 카드뉴스 지역포토 미분류 프리존 책방 UPDATED : 2022-10-11 13:01 (화) 다음카페 네이버TV 블로그 페이스북 트위터 로그인 회원가입 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 전체메뉴 버튼 기획 특집 인터뷰 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 포토 프리존 만평 지역포토 기획 뉴스프리존 기획 특집 인터뷰 오피니언 뉴스프리존 오피니언 사설 칼럼 연재 기고 기자수첩 뉴스종합 뉴스프리존 뉴스종합 정치 사회 동영상뉴스 이달의이슈 경제 뉴스프리존 경제 종합 금융 유통·소비자 기업 IT·과학 자동차 건설·부동산 제약·바이오 특집 지역 뉴스프리존 지역 경기·인천 세종·대전·충남 부산·울산·경남 대구·경북 전라·제주 강원·충북 서울 책속의길 뉴스프리존 책속의길 미디어 좋은책소개 세상을바꾼사람 역사교실 문화와 줌人 뉴스프리존 문화와 줌人 종합 청년이미래다 억울한사연 사는이야기 공연·전시 영화 전통문화 여행·여가 스포츠·연예 뉴스프리존 스포츠·연예 스포츠 연예 골프투데이 포토뉴스 뉴스프리존 포토뉴스 포토 프리존 만평 지역포토 기사검색 검색 상세검색 이전 다음 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 상태바 HOME 오피니언 칼럼 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 카멜리아힐 12월 동백꽃 축제 보고 가볼만한 곳 곽종현 기자 승인 2019.12.15 11:00 댓글 0 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버포스트 URL복사 × 겨울 제주도는 다양한 매력을 갖고 있다. 겨울 제주여행에서 빼놓을 수 없는 것이 바로 동백꽃이다. 겨울에 핀 동백은 화려하며, 짙은 녹색의 타원형 잎 속에서 빨간 꽃을 피운다. 나무에 핀 동백꽃도 아름답지만 땅에 떨어진 꽃들도 무척이나 아름답다. 그리고 따뜻한 온천에 들러 몸을 녹이는 것도 좋다. 중문관광단지 인근에는 세계적으로 보기 드문 탄산온천인 산방산 탄산온천이 있어 많은 이들이 찾고 있다. 아울러 중문관광단지에는 신선한 해산물 요리가 나오는 제주 맛집이 많은데 최근 제주 맛집을 찾은 손님들이 통갈치조림을 즐겨 찾고 있다. 중문 맛집 ‘색달식당 중문본점’ 제주 갈치조림 맛집으로 제주도민 사이에서 이미 입소문이 많이 나 있는 곳으로 최근에는 여행객들에게도 인기몰이라고 한다. 이곳에서 베스트 메뉴 중 하나는 문어통갈치세뉴메뉴인데, 생물 통갈치가 그대로 들어가고 전복, 문어, 딱새우 등 신선한 해산물을 모두 통으로 맛볼 수 있어 이곳을 찾은 남녀노소의 입맛 모두 만족시키고 있다. 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 있어 산방산, 카멜리아힐, 중문색달해변 등 다양한 여행지와 함께 가기 좋은 곳으로 최적의 위치를 자랑하고 있어서 중문관광단지 맛집 대표적인 곳으로 자리매김하고 있다. 또한, 중문맛집 색달식당 중문본점은 가성비가 좋은 식당으로도 정평이 나있는데 그 이유는 통갈치문어세트와 함께 무료로 고등어구이와 돌솥밥 제주도의 대표 향토음식 중 하나인 성게미역국도 맛볼 수 있기 때문이다. 디저트로는 인원수에 맞게 오메기떡이 무료로 나오기도 한다. 또한, 손님들의 편의를 위해 해산물 손질은 모두 직원들에 직접 해주고 있어 방문객들의 만족도가 높다고 한다. 이곳을 방문한 차씨는 "신선한 제주 갈치를 맛볼 수 있어서 좋았고, 해산물 손질부터 다양한 서비스를 무료로 제공하고 있어 너무 좋았다. 특히나 요리의 맛이 누구나 좋아할 맛이라 저희 가족 모두 만족스러운 식사를 즐길 수 있었다. 역시 제주 중문 맛집으로 꼽힐만하다."라며 큰 만족감을 보였다. 중문관광단지 맛집 색달식당 중문본점은 제주 롯데호텔과 제주 신라호텔 등과 가까운 곳에 있어 접근성이 좋으며 중문관광단지 내 어디에서든 식당을 쉽게 방문할 수 있도록 무료 픽업 서비스를 제공하고 있는 등의 많은 편의를 제공하고 있다. 을 응원해주세요. 기사 잘 보셨나요? 독자님의 응원이 기자에게 큰 힘이 됩니다. 후원회원이 되어주세요. 독자님의 후원금은 모두 기자에게 전달됩니다. 정기후원은 모든 기자들에게 전달됩니다. 정기후원 하기 저작권자 © 뉴스프리존 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 페이스북 트위터 카카오스토리 네이버포스트 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 헤드라인 뉴스 BTS콘서트 맞아 부산 밤하늘 보랏빛으로 물들다 여야, 감사원 국감서 유병호 문자-문재인 서면조사 놓고 공방 예고 세계 지방정부, 대전의 밤을 밝히다 최신기사 일본 무나카타시, 국제 자매도시 김해 방문 일본 무나카타시, 국제 자매도시 김해 방문 휴젤 "보툴렉스, 미간주름 환자 부정적 심리 개선 효과 있다" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 경남교육청, 교육감과 함께 "웃으면서 출근해요" 조경태 의원 "국회의원 면책특권 폐지해야" 조경태 의원 "국회의원 면책특권 폐지해야" 거제시 공무원은 드론과 함께 일한다? 거제시 공무원은 드론과 함께 일한다? Tweets by newsfreezone1 하단영역 하단메뉴 매체소개 이용약관 기자윤리강령 뉴스프리존 윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리제도 NF통신 매체정보 NF 통신 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 문화 나 00037 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 편집국 : 02-2235-2114 이메일 : newsfreezone@naver.com 뉴스프리존 매체정보 뉴스프리존 주소 : 서울시 영등포구 국회대로70길 15-1, 극동VIP빌딩 802호 등록번호 : 서울, 아01001 등록일자 및 발행일자 : 2009-10-23 발행·편집인 : (주)뉴스와 사람들 편집국장 : 이창은 고충처리인 : 정희창 청소년보호책임자 : 이혜진 이메일 : newsfreezone@naver.com Copyright © 2022 뉴스프리존. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사·배포 등을 금합니다. 위로 해당 언어로 번역 중 입니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도관광협회 선정 10월, 11월 '베스트 관광인'장춘육당 문영찬 실장·우도동굴레저 김태민 대표 기자명 윤주형 기자 입력 2019.12.15 14:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 부동석)이 문영찬 장춘육당 실장과 김태민 우도동굴레저 대표를 이달의 베스트 관광인으로 선정하고 선정패를 전달했다.제주도관광협회는 지난 12일 제주종합비지니스센터에서 10월 베스트 관광인 문영찬 실장과 11월 베스트 관광인 김태민 대표에게 선정패와 친절 키움 꽃 화분을 전달했다.문영창 장춘육당 실장은 20여년의 경력을 살려 다양한 메뉴를 개발하며 도내 외식업 경쟁력을 강화한 점 등을 인정받았다.김태민 우도동굴레저 대표는 우도 관광객에게 볼거리, 즐길거리 등 서비스를 발굴하고 제공해 우도 관광 경쟁력을 높였다는 평가를 받았다.부동석 도관광협회장은 "제주 관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유하고 제주 관광 종사자의 친절 및 서비스 마인드를 높이겠다"고 말했다. 윤주형 기자 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 11:40 (화) 실시간 뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 [급등주] 팜스토리 6% 상승 '러·우크라 전쟁, 곡물가격 급등' 언에듀케이티드 키드, 대학축제서 관객석에 '다이빙' 하다 추락 골핑, 온라인 골프쇼핑 페스티벌 ‘2022 블랙골프데이’ 진행 [속보] 尹대통령 "학업성취도 전수평가 실시, 원하는 학교 참여토록" 타임스토프팀, 'Mojaik' 메인넷 출시 [속보] 인천경찰청 "남동구서 김철주 씨 배회중, 파란색흰색체크셔츠·베이지색바지" 공효진 결혼, 11일 케빈오와 미국 뉴욕서 비공개 진행... 나이·프로필 화제 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-유엔 세계관광기구, 2020 섬관광정책(ITOP) 국제정책세미나 공동개최 확정 기자명 김연화 기자 입력 2019.12.05 17:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제 관광정책 역량 확보 계기될 듯… UN WTO 사무총장 참석도 추진키로 제주특별자치도 [시사매거진/제주=김연화 기자] 제주도와 유엔 세계관광기구(UN WTO)가 내년 5월 제주에서 열리는 ‘섬관광정책(ITOP) 국제정책세미나’를 공동으로 개최하기로 협의했다. 제주의 국제관광 네트워크가 아시아를 넘어 전세계적으로 확대되기 위해서는 158개국의 회원국을 보유한 유엔 세계관광기구와의 연대가 효과적이라는 필요성에서 출발했다. 유엔 세계관광기구 입장에서도 지난 1997년에 제주를 본부로 해 하이난, 오키나와, 발리 등 해외 섬지역 지방정부들로 구성된 ITOP 포럼과의 협력에 높은 관심이 반영된 결과다. 이를 위해 도에서는 지난 6월 부탄에서 열린 「2019 UN WTO 지역컨퍼런스」에 참가해 제주관광설명회를 개최한 데 이어, 10월에는 중국 계림에서 열린「제13회 UN WTO &amp; PATA(아태관광협회) 포럼」에 참가해 상호 협의를 통해 공동개최에 대해 잠정 합의를 이끌어내기도 했다. 제주도는 내년 4회째를 맞는 섬관광정책 국제정책세미나가 유엔 세계관광기구와 공동으로 개최되면서 행사의 시너지를 높임은 물론 제주관광의 정책 네트워크를 확대하는 데 많은 도움이 될 것으로 보고 있다. 또한, 유엔 세계관광기구의 회원 네트워크를 통해 빅데이터 조사·분석 등 제주의 선진 관광정책을 전 세계에 온오프라인으로 홍보할 수 있는 절호의 기회가 될 것으로 보고 있다. 해리 황(Harry Hwang) 유엔 세계관광기구 부국장은 “내년 5월 제주행사에 주랍 폴로리카스빌리(Zurab Pololikashvili) 사무총장의 참석을 본격적으로 추진하겠다”며 “이는 제주관광의 지속가능한 국제네트워크의 기반을 마련하는 계기가 될 것이다”라고 강조했다. 강영돈 제주특별자치도 관광국장은 “이번 정책네트워크 구축은 제주 관광의 위상이 대한민국을 넘어 국제적으로 한 단계 업그레이드되는 디딤돌이 될 것으로 기대 된다”면서 “행사의 성공적 개최를 위해 차질 없이 준비해 나가겠다”고 말했다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 尹대통령, 무주 일가족 참사 애도..."취약층 세심한 대책" 지시 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 포토뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 4 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 '생활의 달인' 은둔식달 영천 식빵·통밀빵 달인 가게 위치는? 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 사진명소 관광객·주민 불편 해소한 예래동주민센터 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 11일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 제주도 사진명소 관광객·주민 불편 해소한 예래동주민센터 박창원 입력 2019-12-04 14:25 수정 2019-12-04 14:25 ▲ [아시아타임즈=박창원 기자] 제주도 서귀포 색달동에 위치한 갯깍 주상절리대가 최근 인터넷과 개인 SNS를 타고 제주도 사진명소로 급격히 관심을 받고 있다. 갯깍 주상전리대는 2011년도에 낙석위험으로 제주 올렛길 8코스에서 제외가 되었고 관광객에 큰 관심을 받지 못했다. 그러나 금년 가을부터 사진명소로 입소문이 나면서 관광객이 갑자기 몰려 좁은진입도로와 주차공간이 부족해 예래동 주민과 관광객의 불편이 많아지기 시작했다. 갯깍 주상전리대의 진입도로가 경사가 가파른 군 전술도로로 활용되었던 길로 안내가되어 사고위험이 많고 특히 양방향 차량 교행이 어려워 이곳을 처음 찾는 관광객들의 불편과 주차장공간이 없다보니 좁은 도로에 갓길 주차로 인해 생활을 하고 있는 주민들까지 불편을 야기하고 있었다. 이러한 상황속에서 예래동주민센터는 갑작스러운 관광객 증가에 신속히 대응하고 선제적으로 불편을 해소 시키는 노력을 하고 있어 관광객과 지역주민들에세 찬사를 받고 있다. ▲ 예래동장을 하고있는 강동언(53)사무관은 먼저 위험안내와 교통혼잡에 대한 현수막을 설치하고 또한 국내 포털사이트에 정보수정을 요청해 갯깍 주상전리대를 진입하는 길 안내를 예전 군 전술도로에서 안전한 논짓물 우회도로 안내를 요청해 지금은 우회로 정보가 반영되어 안내가 되고 있다. 그리고 잉여 예산을 신속히 투입해 교통통제 안내인원까지 배치해 추가적인 안전을 확보한 상태이다. 애월읍주민센터는 신청사건립으로 임시청사 이전안내를 6개월 동안 하지 않고 방치해두어(본사2019.11.15기사) 지역사회 비판을 받았었는데 예래동주민센터는 선제적으로 관광객 유입경로를 파악해 사전 조치하는 것은 운영책임자의 복무자세와 마음가짐이 이렇게 다른 행정결과를 낳을 수 있는 것을 보여준 한 사례로 지역사회는 펑가하고 있다. ▲ 박창원 사회2부 다른기사 보기 gostar1a@daum.net [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” 코로나19 개량백신 접종 시작…"고위험군 접종 필수" [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ [시승기] 아드레날린 '뿜뿜'…기아 'EV6 GT' [뒤끝토크] 5개월째 외친 항공 인력충원 요구⋯이젠 국회의 시간 "中 보고 있나"…K-배터리, 美 IRA·수입처 확대로 반격 타이밍 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” [아시아타임즈=김영봉 기자] 민주노총 전국공공운수노동조합 화물연대본부(화물연대)가 11일 오전 서울 용산구 대통령 집무실 앞에서 '안전운임개악저지! 일몰제 폐지! 차종·품목확대! 화물연대 투쟁선포 기자회견'을 열고 총파업을 예고했다. 화물연대는 이날 "안전운임제 지속 및 품목확대에 대한 기존의 합의를 뒤집고 안전운임제를 폐지, 무력화 하려는 정부여당의 시도를 좌시 하지 않을 것"이라며 "이에 화물연대는 10월 22일 총파업 결의를 위한 조합원 비상총회를 개최하겠다"고 밝혔다. 국토교통부가 지난달 29일 민생안정경제특위에서 안전운임제가 시장경제원리에 반한다는 의견을 내면서다. 한편 '화물자동차 안전운임제'는 과로, 과속, 과적 운행을 방지하고 도로안전을 위해 필요한 최소한의 운임을 결정하는 제도다. 코로나19 개량백신 접종 시작…"고위험군 접종 필수" 코로나19 개량백신 접종 시작…예약한 날짜에 따라 진행 방역당국, 신규 백신인만큼 이상대응 체계 강화나서 전문가들 "신규 변이·재유행 등의 가능성 높아 접종 필요" [아시아타임즈=이재현 기자] 신종 코로나바이러스 감염증(코로나19) 개량백신 접종이 시작된다. 의학계에서는 면역저하자와 고령층 등 고위험군은 개량백신을 무조건 맞아야 한다고 강조했다. 11일 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가 접종이 시작된다. 이번 접종에 사용되는 개량백신은 코로나19 바이러스 초기주를 기반으로 개발된 기존 백신과 다르게 오미크론 변이 바이러스에도 대응이 가능하도록 개발됐다. 중앙방역대책본부는 개량백신은 기존백신 대비 초기주에는 1.22배, BA.1에 1.75배, BA.4와 BA.5에 1.69배 높은 중화능을 보였다. 중화능은 바이러스를 무력화해 감염을 예방하는 능력을 뜻한다. 지난달 27일부터 시작된 사전예약을 통해 예약한 사람은 이날부터 예약한 날짜에 따라 순차적으로 접종이 시작된다. 면역저하자, 요양병원·시설 등 감염취약시설 입원·입소·종사자, 60세 이상 고령층 등 건강취약계층이 우선 접종 대상이다. 18세 이상 60세 미만 기초접종 완료자도 잔여백신에 한해 개량백신 추가접종을 받을 수 있다. 사전예약 없이 당일 접종을 받으려면 의료기관에 유선으로 연락해 예비명단에 올려 당일 잔여 백신을 접종받을 수 있으며 카카오톡이나 네이버 등 소셜네트워크서비스(SNS)를 통한 잔여백신 확인·예약은 12일 오후 4시부터 가능하다. 방역당국은 개량백신이 새로운 백신인 점을 고려해 시행 초기에는 이상 반응에 더 적극적으로 대응하기로 했다. 접종자 중 문자 수신에 동의한 경우 접종 후 1주일간 능동감시를 통해 건강 상태와 일상생활 문제 여부 등을 확인하도록 하고 접종자 전원을 대상으로 접종 후 3일차 주의 사항과 이상반응시 조치 사항 등을 재안내할 계획이다. 또한 방역당국은 독감백신과 동시에 접종해도 된다고 밝혔다. 신규 변이·재유행 등 가능성 높아…고위험군 접종 필수 전문가들은 올 겨울에 코로나19이 재유행할 가능성이 높기 때문에 고위험군 접종이 필수라고 조언한다. 앞서 앤서니 파우치 국립알레르기·전염병연구소(NIAID) 소장은 미국 언론과의 인터뷰에서 올 겨울에 더 위험한 코로나19 변이가 출현할 수 있다고 경고했다. 미국 질병예방통제센터(CDC)가 발표한 데이터를 보면 지난주 보고된 환자의 79.2%는 오미크론 하위 변이인 BA.5에 감염됐다. 하지만 BA.5와 비슷한 시점에 출현한 BA.4에서 파생된 BA.4.6은 13.6%로 높아졌다. 이같이 기존에 유행하던 코로나에서 변이되거나 아예 새로운 변이가 발생될 가능성을 배제할 수 없다는 것. 국내 전문가들도 같은 의견을 내놓았다. 엄중식 가천대병원 감염내과 교수는 "올해 1분기에 겪었던 대규모 유행이 발생할 가능성은 줄었지만 작은 규모의 유행이 반복될 가능성이 높다"며 "코로나19가 풍토병이나 계절성 질환으로 바뀔 자리매김할 가능성이 높은 만큼 고위험층은 백신 접종이 필수"라고 강조했다. 한 의학계 관계자는 "2가 백신은 지금 유행하는 오미크론을 예방할 수 있기 때문에 효과적"이라며 "향후 어떠한 변이가 나올지는 모르지만 가장 유행하는 백신을 맞는 것이 효과적"이라고 설명했다. [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ 9월 항공 여객 수 400만8362명⋯국내선 및 국제선 여객 수 전월 대비 모두 감소 국제선 여객 수는 121만4867명으로 8월 135만4803명 보다 10.3%↓ 성수기 지난 데다 환율 상승 등이 국제선 여객 수 감소에 영향 [아시아타임즈=김영봉 기자] 여름휴가철이 지나자 9월 해외여행객 수요가 전월 대비 10% 감소한 것으로 나타났다. 9월 입국 전 PCR검사 의무화가 폐지되며 국제선 여객 수요를 끌어 올릴 것으로 전망했지만 효과가 크지 않은 것이다. 휴가시즌이 지난 데다 높은 환율 등이 상승세를 꺾은 것으로 분석된다. 10일 아시아타임즈가 국토교통부 항공정보포털시스템의 9월 항공사별 운송실적을 분석한 결과 대한항공과 아시아나항공, 제주항공, 진에어, 티웨이항공, 에어부산, 에어서울, 에어로케이, 플라이강원, 에어프레미아 등 10개 항공사의 여객 수는 400만8362명(국내/국제 포함)으로 지난 8월 454만1753명 보다 11.7%(53만3391명) 감소했다. 이중 국내선 여객 수가 279만3495명으로 전월 318만6950명 보다 12.3%(39만3455명)감소했고, 국제선 여객 수는 121만4867명으로 한 달 전 135만4803명 보다 10.3%(13만9936명) 줄었다. 항공사별로 9월 여객수를 보면 대한항공은 102만8756명(49만5863명/53만2893명)으로 전월 109만8278명(56만9110명/52만9168명) 보다 6.3% 감소했다. 다만 국제선 여객 수는 국내 항공사 중 유일하게 전월 대비 0.7% 소폭 증가했다. 아시아나항공은 9월 여객 수가 72만8971명(39만3251명/33만5720명)으로 지난 달 80만767명(45만2737명/34만8030명) 보다 8.9%줄었다. 이중 국제선 여객 감소율은 3.5%로 나타났다. 저비용항공사(LCC)들도 여객 수가 전월대비 대부분 감소했다. 특히 국제선 여객 수는 코로나19 이후 처음으로 10만명을 돌파하며 상승세를 탔지만, 9월에는 감소세가 뚜렷했다. 제주항공은 9월 58만7543명(49만4272명/9만3271명)을 수송하며 8월 71만3305명(58만7562명/12만5743명) 대비 17.6% 줄었고, 국제선 여객 수는 한 달 사이 25.8% 급감했다. 이어 진에어는 56만2795명(49만2637명/7만158명)으로 전월 64만6063명(53만7725명/10만8338명) 보다 12.8% 감소했다. 국제선 여객 수는 35.2%나 줄었다. 티웨이항공은 49만3536명(40만280명/9만3256명)으로 지난달 50만9810명(39만788명/11만9022명) 보다 3.2% 줄었다. 이중 국제선 여객 수는 21.6% 감소했다. 에어부산과 에어서울의 여객 수도 모두 줄어들었다. 에어부산의 경우 9월 여객 수는 39만9230명(34만4554명/5만4676명)으로 전월 52만6057명(45만3333명/7만2724명) 24.1% 줄었고, 에어서울은 14만549명(11만5658명/2만4891명)으로 8월 16만2030명(12만328명/4만1702명) 보다 13.2% 감소했다. 이외 플라이강원은 9월 3만632명(2만9496명/1136명), 에어로케이는 2만7484명(국내선)을 수송했고, 국제선만 운항하는 에어프레미아는 8864명을 수송하는데 그쳤다. 항공업계 관계자는 “7월~8월 휴가철이 끝나고 9월은 원래 여객 수가 줄어드는 달”이라면서도 “입국 전 PCR 검사 의무화가 폐지되면서 국제선 여행객이 늘어날 것으로 봤는데 오히려 줄어든 것은 아쉬운 대목”이라고 말했다. 이 관계자는 “9월부터 환율이 높아진 영향도 있는 것 같다”면서 “10월은 연휴기간이 많고, 일본의 무비자 입국이 풀려 여행수요가 늘어날 것으로 기대하고 있다”고 덧붙였다. 한편 9월 총 여객 수는 전년 동월 296만3818명(253만583명/16만3235명)보다 48.7% 늘었고, 국제선 여객 수는 644.2% 급증했다. 전문가의 목소리 나하나 칼럼 워라밸이 가져온 예술의 대중화 정균화칼럼 Simple Living 박창진 칼럼 민생 위기 속 정치의 역할 김용훈 칼럼 국가재정의 전략적 운용 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 11:40 (화) 실시간 뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 [급등주] 팜스토리 6% 상승 '러·우크라 전쟁, 곡물가격 급등' 언에듀케이티드 키드, 대학축제서 관객석에 '다이빙' 하다 추락 골핑, 온라인 골프쇼핑 페스티벌 ‘2022 블랙골프데이’ 진행 [속보] 尹대통령 "학업성취도 전수평가 실시, 원하는 학교 참여토록" 타임스토프팀, 'Mojaik' 메인넷 출시 [속보] 인천경찰청 "남동구서 김철주 씨 배회중, 파란색흰색체크셔츠·베이지색바지" 공효진 결혼, 11일 케빈오와 미국 뉴욕서 비공개 진행... 나이·프로필 화제 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회 탐나오, 과기부 주최 “굿콘텐츠 서비스대상” 우수상 수상 기자명 김연화 기자 입력 2019.12.04 09:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 우수 콘텐츠 서비스 대상, 전문가 평가위원회 거쳐 비즈니스 우수성과 발전 기여도, 성과 등 심사 거쳐 선정 제주도관광협회가 운영하는 제주여행 온라인마켓 “탐나오”가 코엑스 그랜드볼룸서 개최한 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식서 “한국정보통신산업진흥원 원장상(우수상)” 수상. (사진-제주특별자치도 관광협회) [시사매거진/제주=김연화 기자] 제주특별자치도의 지원으로 제주도관광협회(회장 부동석)가 운영하는 제주여행 온라인마켓 “탐나오”가 3일 코엑스 그랜드볼룸에서 열린 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식에서 “한국정보통신산업진흥원 원장상(우수상)”을 수상했다. 본 수상은 국내 디지털 콘텐츠산업 발전에 기여한 우수 콘텐츠 서비스를 대상으로 전문가 평가위원회를 통해 비즈니스 우수성과 발전 기여도 및 성과 등의 심사를 거쳐 선정됐다. 제주도관광협회가 운영하는 제주여행 온라인마켓 “탐나오”가 코엑스 그랜드볼룸서 개최한 과학기술정보통신부 주최 ⌜굿콘텐츠 서비스대상⌟ 시상식서 “한국정보통신산업진흥원 원장상(우수상)” 수상. (사진-제주특별자치도 관광협회) 탐나오는 제주여행 전문 오픈마켓으로, 도내 관광사업체의 온라인 홍보와 판매를 지원하고 있다. 제주도내 1,300여개 사업체가 참여중이며, 제주도 항공권과 선박, 숙박, 렌트카, 관광지, 레저, 마을체험과 맛집, 제주 특산품과 기념품 등 3천여개의 제주 관광상품을 한 눈에 비교하고 할인 구매할 수 있어 많은 사랑을 받고 있다. 특히 올 12월 20일 까지는 제주 여행객 대상의 특별 할인과 L포인트 추가적립 이벤트 및 감귤따기 체험권 증정 등 겨울 제주여행객을 위한 풍성한 혜택이 준비되어 있다. 한편, 탐나오 입점은 도내 관광사업체라면 누구나 가능하며 언제든지 사이트(www.tamnao.com)를 통해 입점을 신청할 수 있다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 尹대통령, 무주 일가족 참사 애도..."취약층 세심한 대책" 지시 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 와룡식품, ISO국제표준화 4개분야 인증 획득 포토뉴스 [특징주] 테라셈 주가 43% 폭등 '14일까지 정리매매' 연극 '오편스', 3년만의 부활..11월 29일 개막 [속보] 尹 "청년정책, 민간일자리 창출과 내 집 마련 자산 형성 지원" '풀소유' 혜민스님 어떻게 지내나...배식 봉사활동서 근황 포착 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 4 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 '생활의 달인' 은둔식달 영천 식빵·통밀빵 달인 가게 위치는? 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
   </si>
   <si>
     <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 12월 동백꽃 축제 즐기고 가볼만한 곳 - 월간원예 × 전체기사 포커스 전체 기획특집 피플 가든&amp;라이프 전체 공기정화식물 원예치료 한국의 꽃 플레이스 전체 과수 채소 화훼 네트워크 전체 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 Info 전체 식량원 Q&amp;A 해외원예 테크 마켓 비즈 전체 작물보호제 종자소개 농자재정보 목차 회사소개 원예News 동영상 일반 로그인 회원가입 모바일웹 UPDATED. 2022-09-20 18:04 (화) 기사검색 검색 포커스 플레이스 과수 채소 화훼 피플 테크 비즈 작물보호제 종자소개 농자재정보 마켓 네트워크 우수센터 농촌을 이끄는 사람들 농촌진흥기관소식 이전 다음 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 12월 동백꽃 축제 즐기고 가볼만한 곳 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 상태바 HOME 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 12월 동백꽃 축제 즐기고 가볼만한 곳 김영수 기자 승인 2019.12.07 11:05 댓글 0 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 지친 일상에서 벗어나 여행으로 힐링하고 싶어하는 사람들이 많아지고 있다. 해외여행의 꿈을 꾸기도 하고 국내 가족 여행, 우정 여행, 커플 여행 등 기대 반 설렘 반 일정을 짜본다. 이에 겨울 제주도에는 동백꽃의 계절 12월을 맞이하여 제주 허브동산에서 동백꽃축제가 열린다. 100그루 이상의 애기동백숲이 마련되어 있는 제주 허브동산에서 다채로운 동백꽃의 향연을 즐겼다면 다음은 속을 든든히 채울 차례다. 중문 맛집 ‘색달식당 중문본점’ 제주 갈치조림 맛집으로 제주도민 사이에서 이미 입소문이 많이 나 있는 곳으로 최근에는 여행객들에게도 인기몰이라고 한다. 이곳에서 베스트 메뉴 중 하나는 문어통갈치세뉴메뉴인데, 생물 통갈치가 그대로 들어가고 전복, 문어, 딱새우 등 신선한 해산물을 모두 통으로 맛볼 수 있어 이곳을 찾은 남녀노소의 입맛 모두 만족시키고 있다. 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 있어 산방산, 카멜리아힐, 중문색달해변 등 다양한 여행지와 함께 가기 좋은 곳으로 최적의 위치를 자랑하고 있어서 중문관광단지 맛집 대표적인 곳으로 자리매김하고 있다. 또한, 중문맛집 색달식당 중문본점은 가성비가 좋은 식당으로도 정평이 나있는데 그 이유는 통갈치문어세트와 함께 무료로 고등어구이와 돌솥밥 제주도의 대표 향토음식 중 하나인 성게미역국도 맛볼 수 있기 때문이다. 디저트로는 인원수에 맞게 오메기떡이 무료로 나오기도 한다. 또한, 손님들의 편의를 위해 해산물 손질은 모두 직원들에 직접 해주고 있어 방문객들의 만족도가 높다고 한다. 이곳을 방문한 차씨는 "신선한 제주 갈치를 맛볼 수 있어서 좋았고, 해산물 손질부터 다양한 서비스를 무료로 제공하고 있어 너무 좋았다. 특히나 요리의 맛이 누구나 좋아할 맛이라 저희 가족 모두 만족스러운 식사를 즐길 수 있었다. 역시 제주 중문 맛집으로 꼽힐만하다."라며 큰 만족감을 보였다. 중문 가볼만한곳 색달식당 중문본점 관계자는 "방문해주시는 모든 손님들을 위해 냉동이 아닌 오직 생물 갈치만을 이용해 요리를 해오고 있다. 매콤하고 달달하며 깊은 맛이 나는 갈치조림의 양념은 우리만의 노하우가 가득 담긴 것으로 앞으로도 최선을 다해서 맛있는 요리를 제공하기 위해 노력할 것."이라고 전했다. 중문관광단지 맛집 색달식당 중문본점은 제주 롯데호텔과 제주 신라호텔 등과 가까운 곳에 있어 접근성이 좋으며 중문관광단지 내 어디에서든 식당을 쉽게 방문할 수 있도록 무료 픽업 서비스를 제공하고 있는 등의 많은 편의를 제공하고 있다. 저작권자 © 월간원예 무단전재 및 재배포 금지 김영수 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 기사공유하기 월간원예 소개 지난호보기 정기구독안내 광고안내 전문가상담코너 우리농촌책보내기운동 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 금천구 디지털로9길 33 (IT미래TOWER) 1305호 대표전화 : 02-3474-7063~6 팩스 : 02-3471-7067 청소년보호책임자 : 이주상 법인명 : 월간원예 제호 : 월간원예 등록번호 : 서초 라 00086 등록일 : 1983-10-20 발행일 : 1983-10-20 발행·편집인 : 이주상 월간원예 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 월간원예. All rights reserved. mail to wonye@nongup.net 위로</t>
   </si>
   <si>
-    <t>제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-04 10:35 (화) 처음으로 로그인 회원가입 이전 다음 제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 우진영 기자 승인 2019.12.06 11:41 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 사계절 다른 풍경과 다양한 볼거리로 재방문율이 높은 인기 관광지로 풍성한 놀거리와 먹거리까지 즐길 거리 등 인기가 많은 만큼 정보도 너무 많아서 제주도 관광코스를 선정하는데 어려움을 겪을 정도다. 제주공항에서 해안도로를 따라 오른쪽으로 이동하면 만날 수 있는 구좌읍은 월정리 해변과 김녕해변을 비롯해 빼어난 자연경관과 카페로 인기 높은 월정리 해안도로, 비자나무 2,800여 그루가 자생되고 있는 비자림, 제주도 관광코스로 자리잡은 아부오름 등 제주도 관광명소가 밀집해 있다. 구좌의 대표해변인 월정리 해변은 아름답고 서정적인 바다풍경을 바라보며 의자에 앉은 인증샷이 SNS 에서 유행하면서 포토스팟으로도 사랑 받고 있다. 이처럼 아름다운 월정리 해변 바로 옆에 위치해 2층에서 탁 트인 바다조망을 즐기며 제주도에서 자생하는 꽃으로 만든 천연꽃 향수와 천연꽃 립글로스를 만들 수 있는 체험관광지가 있다. ‘제주이야기’는 제주 체험형 실내관광지로 날씨와 상관없이 쾌적한 실내에서 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있으며 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 기능성 화장품, 예쁜 젤캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 현재 월정리 해변 바로 옆에 위치한 월정리점과 행원본점, 애월점 세 군데가 운영되고 있다. 특히 애월점은 바다가 보이는 매장내부 곳곳 아기자기하고 예쁜 포토존을 마련해 인증샷 핫플레이스로 자리매김하고 있다. 특히 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하며 보존제가 전혀 들어가지 않은 천연원료로 만든 향수로 어린이도 부담 없이 만들고 사용할 수 있어 어린자녀를 둔 가족단위의 여행객들에게 호평받고 있다. 만들기 체험으로는 화산송이 현무암 속에 향기로운 꽃을 담아 은은한 향기를 내뿜는 ‘천연꽃 방향제’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’, 천연꽃으로 나만의 향기를 만들 수 있는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 만들어 볼 수 있다. ’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’, 천연꽃으로 나만의 향기를 만들 수 있는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 만들어 볼 수 있다. 업체 관계자는 “제주도에서만 할 수 있는 천연 꽃 향수 체험을 할 수 있어 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”최근 제주도에서 캔들 선물이 유행하며 제주도만의 특색이 살아있는 자체제작한 젤 캔들을 기념품으로 구매하러 오시는 관광객들이 늘고 있다”고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상차 및 꽃을 이용한 티백 과 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 우진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 [PASCON 2022] 하반기 최대 정보보호 컨퍼런스...9월 28일 개최, 사전등록 접수중 2 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 조직화된 서비스형 랜섬웨어 위협 급증...종합적인 대응 필요 3 [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” [CPS보안워크숍] 정현철 PM “해커들 공격 억제위해 공세적 대응기술 발전시켜야” 4 “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” “국내 랜섬웨어 피해기업 80%가 중소기업...64%는 백업도 안 해” 5 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 우버, 최근 보안 침해에 대해 삼성·시스코·MS 등 공격한 ‘랩서스’ 해킹 그룹 비난 오늘이 주요뉴스 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 긴급속보 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 정책 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 긴급속보 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 지재위, 기술 해외유출과 탈취 방지 위한 연구자 가이드라인 발간 가명정보 활용 성과 본격화, 우수사례·아이디어 경진대회 개최 개인정보위, ‘제2회 개인정보보호의 날’ 열려...개인정보 보호 유공 포상 아울시스템즈, ‘국방보안 컨퍼런스'에서 신제품 및 파트너사 제품 소개 보안자료 2022년_상반기_악성코드_은닉사이트_탐지_동향_보고서(KISA) 개인정보보호위원회, 개인정보의 기술적 관리적 보호조치 기준 개정 해설서(2022.8.) 금융보안원-전자금융과 금융보안 제29호 아동·청소년 개인정보 보호 가이드라인(2022.7, 제정) 정보보호 해외진출 전략거점 월간 주요동향(2022년 7월) 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
-  </si>
-  <si>
-    <t>11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 &lt; 기업 &lt; 전국뉴스 &lt; 기사본문 - 경상일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-04 10:30 (화) 전체기사 독자투고 기사제보 알림 화촉 부고 모집 광고문의 구독신청 1989년 5월 15일 창간 기사검색 검색 전체메뉴 뉴스 최신뉴스/속보 정치 사회 문화 국제 전국뉴스 경제 종합 기업/무역 증권/금융 건설/부동산 유통/소비 금융가 경제가이드 사회 종합 울산 부산/양산 사건사고 시민기자의창 문화 종합 방송연예 도서/음반 공연/전시 스포츠 종합 축구 야구 골프 배구/농구 올림픽 월드컵 전국체전 오피니언 종합 사설 사내칼럼 사외칼럼 독자기고 울산사람들 경상일보TV PDF지면보기 로그인 회원가입 모바일웹 본문영역 이전 기사보기 다음 기사보기 11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국뉴스 기업 11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 기자명 배정환 기자 승인 2019.11.16 00:30 지면 21면 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [경상일보 = 배정환 기자] 제주도에도 이따금씩 겨울이 찾아오고 있다. 제주도 여행을 준비하는 사람들은 제주도 항공권부터 날씨, 비올때 가볼만한곳, 스쿠터대여, 비행기표, 제주공항 면세점, 렌트카 등을 알아보기 바쁘다.제주도 제주시, 서귀포시나 제주도 동쪽코스, 서쪽코스 등 제주도에 가볼만한곳들에 대한 정보도 쉽게 찾아볼 수 있다. 제주 삼양해수욕장, 제주 한림공원, 이호테우해변, 중문 색달 해수욕장, 쇠소깍, 베니스랜드, 세화 해수욕장, 함덕해수욕장, 산굼부리, 제주 용머리해안 등 외부 관광 명소들과, 제주 박물관은 살아있다, 헬로키티아일랜드 등 실내 관광지도 아주 많다.맛집으로는 고사리해장국, 고기국수, 제주 흑돼지, 갈치조림, 횟집 등도 있지만, 다른음식들에 비해 잘 알려져 있지 않은 제주 우럭조림도 있다.제주 우럭조림을 전문적으로 요리하는 고집돌우럭이 제주도 가볼만한 맛집으로 소문이 자자하다. 제주공항과 동문시장 근처에 제주공항점이, 중문 관광단지에 중문점이, 함덕해수욕장 바로 앞에 함덕점 총 3곳이 운영되고 있다.SNS에서 각각 다른 분위기의 매장 포토존들이 속속 올라오며 유명 셀럽, 연예인도 찾는 맛집으로 유명하다. 소감이벤트를 진행하여 다양한 영상들도 올라오고 있다. 전복새우우럭조림과 해녀낭푼밥, 25cm 독게튀김, 숙성 모듬회, 전복새우연어장 등 제주의 맛을 한번에 느낄 수 있는 메뉴구성으로 만족도가 높으며, 적극적인 이벤트를 통해 그 이름을 더욱 알리고 있다. 배정환 기자 karion79@ksilbo.co.kr 다른기사 보기 저작권자 © 경상일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 울산의대, 울산대병원 인근에 학사 건립한다 창평지구(북구)·율현지구(울주군)부터 해제 추진 진입로 막힌 상가들 “매출 반토막” 울산 남구 삼산동 예식장 ‘명도집행 결정’…예약자들 불안 호소 수족구병, 입과 손·발에 수포…대부분 일주일새 회복 가을밤 울산대공원서 힐링하세요 200대의 드론, 밤하늘 빛의 장관 연출 울산의대, 울산대병원 인근에 학사 건립한다 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 “文정부 ’탈원전하면 5년후 전기요금 인상 불가피‘ 알고있었다” “러, 핵무기 시위 임박…핵장비 수송·북극해 핵실험 준비” 산유국 대규모 감산 논의에 국제유가 급등…WTI 5.2%↑ 국제금값도 1.8% 상승 美태평양함대, ‘일본해’ 아닌 동해·‘한반도 동쪽수역’으로 명기 재산분할 청구소송, 전업주부라도 긍정적 결과 기대할 수 있어 北미사일 5년 만에 일본열도 통과…홋카이도에 대피 지시 최신뉴스 “文정부 ’탈원전하면 5년후 전기요금 인상 불가피‘ 알고있었다” “러, 핵무기 시위 임박…핵장비 수송·북극해 핵실험 준비” 산유국 대규모 감산 논의에 국제유가 급등…WTI 5.2%↑ 국제금값도 1.8% 상승 美태평양함대, ‘일본해’ 아닌 동해·‘한반도 동쪽수역’으로 명기 北미사일 5년 만에 일본열도 통과…홋카이도에 대피 지시 포토뉴스 전국체전 대비 대청소 흥겨운 울산 전국체전 홍보 울산전국체전 성공 기원 ‘꽃탑’ 원도심서 즐기는 문화재야행 인기뉴스 1 울산의대, 울산대병원 인근에 학사 건립한다 2 창평지구(북구)·율현지구(울주군)부터 해제 추진 3 진입로 막힌 상가들 “매출 반토막” 4 울산 남구 삼산동 예식장 ‘명도집행 결정’…예약자들 불안 호소 5 수족구병, 입과 손·발에 수포…대부분 일주일새 회복 6 가을밤 울산대공원서 힐링하세요 7 200대의 드론, 밤하늘 빛의 장관 연출 8 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 하단영역 매체정보 울산광역시 남구 북부순환도로 17 대표전화 : 052-220-0515 팩스 : 052-224-1030 사업자번호 610-81-07906 청소년보호책임자 : 배정환 제호 : 경상일보 등록번호 : 울산,아01105 등록일 : 2018-04-23 발행일 : 발행인 : (주)경상일보 엄주호 편집인 : 엄주호 Copyright © 2022 경상일보. All rights reserved. mail to webmaster@ksilbo.co.kr 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 전국뉴스 전체 보도자료 정치 교육 사회 기업 소상공인 건설/부동산 경제 TV/연예 문화 연예 스포츠 국제 김영삼전대통령서거 제19대 대통령 선거 울산사람들 전체 종합 울산사람들 톡톡인생 동정/인터뷰 인사 울산미소365 화제의인물 주간일정 될성부른나무 희망미소2009 화촉 부고 알림 모집 우리동네 사람들 연예/시사 전체 기획사보도자료 카드뉴스 전체 카드뉴스 디지털연합뉴스 오피니언 전체 사설 경상시론 경상칼럼 데스크칼럼 독자수필 특별기고 기자수첩 현장의시각 이런생각 스마트교실 무거통신 태화강 공병호칼럼 CEO칼럼 독자투고/제언 법률상담 태화루 독자위원회 교단일기 독자칼럼 경상시론 공업탑 발언대 독자기고 세무상담 오늘의시각 발행인칼럼 임진혁칼럼 이채필칼럼 이수동칼럼 정일근의 감성칼럼 전문가상담 신국조의 세상만사 배혜숙의 소소한 세상 이야기 법원칼럼 김주홍칼럼 정구열칼럼 이수동 미래칼럼 성범중교수의 한시산책 구천의 음악이야기 울산 새내기가 본 울산 디자인 배은경의 유물이야기 맹소영의 날씨이야기 양성봉의 냄새이야기 안병학의 디자인 이야기 경상읽기 장창호의 이야기 삼국유사 곽영신의 색채이야기 그림이 있는 에세이 노익희의 인문학이야기 이동우칼럼 박종화칼럼 이규옥의 디자인이야기 안전칼럼 이영순칼럼 정명숙칼럼 장선영의 수학이야기 문소운의 옹기이야기 환경의학칼럼 산업환경보건칼럼 김양호칼럼 강영환의 건축과 문화 기라영의 미술산책 우형순의 그림세상 안준호의 세상읽기 이태철칼럼 팩트n이슈-그건 이겁니다 윤범상의 世事雜談 이재명칼럼 김문찬의 건강지평 임희천의 수소이야기 이상목의 암각화 톺아보기 김남호의 철학산책 정준금 칼럼 행복한 안전칼럼 배혜숙의 한국100탑 장세련의 독서일기 임정아의 그림세상 윤주은의 우리글 우리말 자치의회 한규만의 사회와 문화 신선영의 컬러 톡!톡! 김상곤의 살며 생각하며 정두영의 마음건강 정홍가의 정원이야기 정연우칼럼 서태일의 말레이시아통신 성인수의 도시와 인간 장두석의 경제만화경 유동우 경제옹알이 최석영의 버섯이야기 송철호의 反求諸己 곽영신의 색채이야기 김경진의 암각화로 만나는 선사예술 윤석의 더불어나무 설성제의 독서공방 배성은의 세금이야기 한삼건의 미래도시 이명인의 기후와 환경 신면주칼럼 청년CEO포럼 정치 전체 종합 울산시의회 국회/정당 북한/통일 행정/외교 청와대 6.13지방선거 4·11제19대 국회의원선거 경상라운지 6.5보궐선거 6.2지방선거 울산4·27재선거 2012국민의선택 2014 전국동시지방선거 제20대 국회의원선거 제19대 대통령선거 문재인대통령한미정상회담 경제 전체 종합 증권/금융/세무 유통/소비 건설/부동산 기업/무역 농축수산업 부동산정보 세무상담 이런직종 소비자상담 창업가이드 쇼핑정보 시사경제알기 그래픽뉴스 경매물건 해외경제 증권뉴스 경제가이드 금융가 성공기업N기업인 일터의사람들 울산의 마을기업 눈에 띄는 중개물건 지역경제에 活力을 세무경영 최고위과정 문화 전체 종합 방송연예 생활과여성 건강N의료 도서음반 공연전시 오늘의운세 아줌마영어 한국탑순례 울산의철새 들꽃이야기 다시찾는근교산 살기좋은울산 뉴욕통신 시가있는금요일 연재만화 애완동물 문화엿보기 극장가산책 여행편지 의전이야기 울산포유 한국의축제 주역과다도 풍수이야기 미술산책 클래식이야기 아동놀이 막상막하 청진기 잉글리쉬울산포유 울산의인물산책 박물관즐기기 박물관과함께 가족과함께나들이 레포츠 삼국지인물 사람들이떠나버린풍경 청소년기자단 미인의동굴 건강이최고죠 홍여진의수다 역사속오늘 주목 읽고싶은신간 조행기 건강한젊음울산의미래 주말문화광장 여성들의작은모임 WeekNFree 태화강수담 경상일보신춘문예 한국인의밥상 디카사진공모전 옛사진울산이야기 스크린터치 TEAF 구술로정리하는울산이야기 곽미자의요가에세이 도시탐험AtoZ 예술로다가가는남성열전 한국의이색박물관 지상인문강좌 교과서속문화탐방 이사람을주목한다 울산언더그라운드를찾아서 HealthNCity 일본어한마디 영화로보는라틴아메리카 아침묵향 이야기로읽는세계명화 금쪽같은우리말 성범중의한시 투데이영어 연재소설-이예 그 불멸의 길 생활일어 樂인영화낚인영화 연재소설-海帝어둔 김경수의기초한자이야기 동호회탐방 동시를 읽는 아침 시를 읽는 아침 이재명의 계절 한담(閑談) 경상 갤러리 맛집투어-울산의 줄서는집 하지태왕기 김정수의 시조산책 사회 전체 종합 이재명의 뉴스 뒤집어보기 울산 부산/양산 울산양산 부산경남 대구/경북 시민기자의창 사건사고 노동 생활단신 뒷골목 이동편집국 녹색도시울산 사방팔방 별난이야기 에코이코노미선진국을가다 신종플루 간추린뉴스 뉴스브리핑 창간21주년특집 햇살 사방팔방 일본대지진 2017 울산 방문의 해 경상일보TV 전체 여기어때 이현주프로의리얼골프 영상뉴스 울산관광 배석우프로의 숏게임 국제 전체 종합 지구촌 별난이야기 아시아 아메리카 유럽 아프리카 해외토픽 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:39 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 기자명 인터넷뉴스팀 입력 2019.12.02 10:22 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 동백꽃의 계절 12월을 맞이하여 제주 허브동산에서 동백꽃축제가 열린다. 100그루 이상의 애기동백숲이 마련되어 있는 제주 허브동산에서 다채로운 동백꽃의 향연을 즐겼다면 다음은 속을 든든히 채울 차례다. 이에 제주허브동산 근방의 서귀포맛집 ‘표선행복한식당’은 신선한 제주도 갈치조림과 향토음식을 푸짐하게 차려내는 제주맛집으로 동백꽃축제 관광객을 위한 다양하 메뉴들을 제공 중이다. 푸른 제주바다에서 갓 잡은 다양한 해산물을 활용하여 20년 경력의 장인이 매일 아침 밑반찬부터 메인 메뉴를 손수 마련한다. 고급 한정식집을 연상케 하는 부드러운 접객 태도는 여행지의 피로로 날카로워진 여행객들의 마음을 달래주며 어머니의 손맛이 그리운 현지인들 역시 가족모임이나 회식, 생신잔치 등 다양한 목적으로 제주맛집 ‘표선행복한식당’을 찾고 있다. 다양한 단품메뉴가 준비되어 있으며 제주명물의 이름을 딴 한상차림이 유명하다. 모든 한상차림 메뉴에는 구수한 전복죽과 담백한 성게미역국, 보들보들한 전복구이와 칼칼한 전북뚝배기가 함께 나와 제주 향토음식의 진미를 맛볼 수 있도록 해준다. ‘올레길한상’은 제주대표 생선 옥돔구이를 메인으로 하며 ‘일출봉한상’은 기름기가 물씬 오른 겨울고등어구이와 고등어조림을 넉넉히 차려낸다. 추가 금액을 지불하면 더욱 푸짐한 ‘특 메뉴’로 업그레이드를 할 수 있는 ‘한라산한상’과 ‘백록담한상’은 제주 갈치요리를 화려하게 선보인다. ‘한라산한상’에서는 박력이 넘치는 통갈치구이와 매콤한 제주도 갈치조림을 만나볼 수 있고 ‘백록담한상’은 제주도 갈치에 통문어와 전복, 갯가재 등 각종 해산물을 곁들인 제주 갈치조림에 통갈치구이가 함께 나온다. 남녀노소 누구든 만족할 수 있는 서귀포맛집 ‘표선행복한식당’은 제주치고 늦은 시간인 밤 10시까지 영업하기 때문에 부담 없이 저녁 식사를 즐길 수 있으며 단체 관광객을 위한 넉넉한 주차장과 자리가 마련되어 있다. 아침 7시부터 문을 열기 때문에 헛헛한 속을 든든히 채우고 하루 일정을 시작하기에도 제격이다. 근처 유명 관광지인 제주허브동산은 물론 제주민속촌, 성읍민속마을, 섭지코지, 표선해수욕장 등과 가까워 여행 일정에 자연스럽게 방문할 수 있다. 제주맛집 ‘표선행복한식당’에 미리 연락하여 예약을 한다면 더욱 편리하고 빠르게 정갈하고 깔끔한 제주 향토음식과 제주도 갈치조림을 맛볼 수 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [특징주] 오토앤 주가 급등세... 이유는? 6 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+    <t>제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 13:10 (화) 처음으로 로그인 회원가입 이전 다음 제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME IT&amp;생활 제주도 관광 코스 실내체험관광지 ‘제주이야기’ 내 손으로 만드는 천연 꽃 향수와 화장품 우진영 기자 승인 2019.12.06 11:41 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도는 사계절 다른 풍경과 다양한 볼거리로 재방문율이 높은 인기 관광지로 풍성한 놀거리와 먹거리까지 즐길 거리 등 인기가 많은 만큼 정보도 너무 많아서 제주도 관광코스를 선정하는데 어려움을 겪을 정도다. 제주공항에서 해안도로를 따라 오른쪽으로 이동하면 만날 수 있는 구좌읍은 월정리 해변과 김녕해변을 비롯해 빼어난 자연경관과 카페로 인기 높은 월정리 해안도로, 비자나무 2,800여 그루가 자생되고 있는 비자림, 제주도 관광코스로 자리잡은 아부오름 등 제주도 관광명소가 밀집해 있다. 구좌의 대표해변인 월정리 해변은 아름답고 서정적인 바다풍경을 바라보며 의자에 앉은 인증샷이 SNS 에서 유행하면서 포토스팟으로도 사랑 받고 있다. 이처럼 아름다운 월정리 해변 바로 옆에 위치해 2층에서 탁 트인 바다조망을 즐기며 제주도에서 자생하는 꽃으로 만든 천연꽃 향수와 천연꽃 립글로스를 만들 수 있는 체험관광지가 있다. ‘제주이야기’는 제주 체험형 실내관광지로 날씨와 상관없이 쾌적한 실내에서 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있으며 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 기능성 화장품, 예쁜 젤캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 현재 월정리 해변 바로 옆에 위치한 월정리점과 행원본점, 애월점 세 군데가 운영되고 있다. 특히 애월점은 바다가 보이는 매장내부 곳곳 아기자기하고 예쁜 포토존을 마련해 인증샷 핫플레이스로 자리매김하고 있다. 특히 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하며 보존제가 전혀 들어가지 않은 천연원료로 만든 향수로 어린이도 부담 없이 만들고 사용할 수 있어 어린자녀를 둔 가족단위의 여행객들에게 호평받고 있다. 만들기 체험으로는 화산송이 현무암 속에 향기로운 꽃을 담아 은은한 향기를 내뿜는 ‘천연꽃 방향제’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’, 천연꽃으로 나만의 향기를 만들 수 있는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 만들어 볼 수 있다. ’와 청정 제주산 화상송이와 감귤 추출물을 함유한 ‘화산송이 모공팩’, 천연꽃으로 나만의 향기를 만들 수 있는 ‘천연꽃 롤향수’와 천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’를 만들어 볼 수 있다. 업체 관계자는 “제주도에서만 할 수 있는 천연 꽃 향수 체험을 할 수 있어 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”며”최근 제주도에서 캔들 선물이 유행하며 제주도만의 특색이 살아있는 자체제작한 젤 캔들을 기념품으로 구매하러 오시는 관광객들이 늘고 있다”고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상차 및 꽃을 이용한 티백 과 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © 데일리시큐 무단전재 및 재배포 금지 우진영 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 &lt; 기업 &lt; 전국뉴스 &lt; 기사본문 - 경상일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-11 00:11 (화) 전체기사 독자투고 기사제보 알림 화촉 부고 모집 광고문의 구독신청 1989년 5월 15일 창간 기사검색 검색 전체메뉴 뉴스 최신뉴스/속보 정치 사회 문화 국제 전국뉴스 경제 종합 기업/무역 증권/금융 건설/부동산 유통/소비 금융가 경제가이드 사회 종합 울산 부산/양산 사건사고 시민기자의창 문화 종합 방송연예 도서/음반 공연/전시 스포츠 종합 축구 야구 골프 배구/농구 올림픽 월드컵 전국체전 오피니언 종합 사설 사내칼럼 사외칼럼 독자기고 울산사람들 경상일보TV PDF지면보기 로그인 회원가입 모바일웹 본문영역 이전 기사보기 다음 기사보기 11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국뉴스 기업 11월~12월 제주도 가볼만한곳! 제주공항, 함덕해수욕장, 중문관광단지 근처 맛집 고집돌우럭 기자명 배정환 기자 승인 2019.11.16 00:30 지면 21면 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [경상일보 = 배정환 기자] 제주도에도 이따금씩 겨울이 찾아오고 있다. 제주도 여행을 준비하는 사람들은 제주도 항공권부터 날씨, 비올때 가볼만한곳, 스쿠터대여, 비행기표, 제주공항 면세점, 렌트카 등을 알아보기 바쁘다.제주도 제주시, 서귀포시나 제주도 동쪽코스, 서쪽코스 등 제주도에 가볼만한곳들에 대한 정보도 쉽게 찾아볼 수 있다. 제주 삼양해수욕장, 제주 한림공원, 이호테우해변, 중문 색달 해수욕장, 쇠소깍, 베니스랜드, 세화 해수욕장, 함덕해수욕장, 산굼부리, 제주 용머리해안 등 외부 관광 명소들과, 제주 박물관은 살아있다, 헬로키티아일랜드 등 실내 관광지도 아주 많다.맛집으로는 고사리해장국, 고기국수, 제주 흑돼지, 갈치조림, 횟집 등도 있지만, 다른음식들에 비해 잘 알려져 있지 않은 제주 우럭조림도 있다.제주 우럭조림을 전문적으로 요리하는 고집돌우럭이 제주도 가볼만한 맛집으로 소문이 자자하다. 제주공항과 동문시장 근처에 제주공항점이, 중문 관광단지에 중문점이, 함덕해수욕장 바로 앞에 함덕점 총 3곳이 운영되고 있다.SNS에서 각각 다른 분위기의 매장 포토존들이 속속 올라오며 유명 셀럽, 연예인도 찾는 맛집으로 유명하다. 소감이벤트를 진행하여 다양한 영상들도 올라오고 있다. 전복새우우럭조림과 해녀낭푼밥, 25cm 독게튀김, 숙성 모듬회, 전복새우연어장 등 제주의 맛을 한번에 느낄 수 있는 메뉴구성으로 만족도가 높으며, 적극적인 이벤트를 통해 그 이름을 더욱 알리고 있다. 배정환 기자 karion79@ksilbo.co.kr 다른기사 보기 저작권자 © 경상일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 창평지구(북구)·율현지구(울주군)부터 해제 추진 진입로 막힌 상가들 “매출 반토막” “이예로 완전개통으로 울산 남구~경주 지척” 가을밤 울산대공원서 힐링하세요 엑소21컨벤션 강제집행 임박 행사60건 ‘비상’ 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 올 개천절에도 간월재 억새평원서 ‘음악바람’ 분다 창평지구(북구)·율현지구(울주군)부터 해제 추진 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 반환점 돈 전국체전…울산선수 7명 다관왕 전국체전 마라톤 경기로 11~12일 도로 일부 통제 尹대통령 “지방시대 핵심은 지역 스스로 성장동력 찾는 것” 씨름·카누·역도·태권도·레슬링·육상…하루에만 ‘금 18개·은 9개·동 13개’ 획득 역도 여자 3관왕 서정미, “2번의 실패 딛고, 나 자신을 믿고 도전” 카누 2관왕 조광희, “연습한 만큼 좋은 결과가 나와 기뻐” 최신뉴스 반환점 돈 전국체전…울산선수 7명 다관왕 전국체전 마라톤 경기로 11~12일 도로 일부 통제 尹대통령 “지방시대 핵심은 지역 스스로 성장동력 찾는 것” 씨름·카누·역도·태권도·레슬링·육상…하루에만 ‘금 18개·은 9개·동 13개’ 획득 역도 여자 3관왕 서정미, “2번의 실패 딛고, 나 자신을 믿고 도전” 포토뉴스 ‘FA컵 4강’ 선제골 넣은 울산현대 자연주의 정원, 막바지 작업 구슬땀 가을비 내리는 울산대공원 전국체전 대비 대청소 인기뉴스 1 창평지구(북구)·율현지구(울주군)부터 해제 추진 2 진입로 막힌 상가들 “매출 반토막” 3 “이예로 완전개통으로 울산 남구~경주 지척” 4 가을밤 울산대공원서 힐링하세요 5 엑소21컨벤션 강제집행 임박 행사60건 ‘비상’ 6 대퇴골두 무혈관성 괴사, 30~50대 남성 양반다리 힘들땐 의심해봐야 7 올 개천절에도 간월재 억새평원서 ‘음악바람’ 분다 8 유방암, 서구식 생활양식으로 20·30대 발병 증가 하단영역 매체정보 울산광역시 남구 북부순환도로 17 대표전화 : 052-220-0515 팩스 : 052-224-1030 사업자번호 610-81-07906 청소년보호책임자 : 배정환 제호 : 경상일보 등록번호 : 울산,아01105 등록일 : 2018-04-23 발행일 : 발행인 : (주)경상일보 엄주호 편집인 : 엄주호 Copyright © 2022 경상일보. All rights reserved. mail to webmaster@ksilbo.co.kr 하단메뉴 신문사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 위로 전체메뉴 전체기사 전국뉴스 전체 보도자료 정치 교육 사회 기업 소상공인 건설/부동산 경제 TV/연예 문화 연예 스포츠 국제 김영삼전대통령서거 제19대 대통령 선거 울산사람들 전체 종합 울산사람들 톡톡인생 동정/인터뷰 인사 울산미소365 화제의인물 주간일정 될성부른나무 희망미소2009 화촉 부고 알림 모집 우리동네 사람들 연예/시사 전체 기획사보도자료 카드뉴스 전체 카드뉴스 디지털연합뉴스 오피니언 전체 사설 경상시론 경상칼럼 데스크칼럼 독자수필 특별기고 기자수첩 현장의시각 이런생각 스마트교실 무거통신 태화강 공병호칼럼 CEO칼럼 독자투고/제언 법률상담 태화루 독자위원회 교단일기 독자칼럼 경상시론 공업탑 발언대 독자기고 세무상담 오늘의시각 발행인칼럼 임진혁칼럼 이채필칼럼 이수동칼럼 정일근의 감성칼럼 전문가상담 신국조의 세상만사 배혜숙의 소소한 세상 이야기 법원칼럼 김주홍칼럼 정구열칼럼 이수동 미래칼럼 성범중교수의 한시산책 구천의 음악이야기 울산 새내기가 본 울산 디자인 배은경의 유물이야기 맹소영의 날씨이야기 양성봉의 냄새이야기 안병학의 디자인 이야기 경상읽기 장창호의 이야기 삼국유사 곽영신의 색채이야기 그림이 있는 에세이 노익희의 인문학이야기 이동우칼럼 박종화칼럼 이규옥의 디자인이야기 안전칼럼 이영순칼럼 정명숙칼럼 장선영의 수학이야기 문소운의 옹기이야기 환경의학칼럼 산업환경보건칼럼 김양호칼럼 강영환의 건축과 문화 기라영의 미술산책 우형순의 그림세상 안준호의 세상읽기 이태철칼럼 팩트n이슈-그건 이겁니다 윤범상의 世事雜談 이재명칼럼 김문찬의 건강지평 임희천의 수소이야기 이상목의 암각화 톺아보기 김남호의 철학산책 정준금 칼럼 행복한 안전칼럼 배혜숙의 한국100탑 장세련의 독서일기 임정아의 그림세상 윤주은의 우리글 우리말 자치의회 한규만의 사회와 문화 신선영의 컬러 톡!톡! 김상곤의 살며 생각하며 정두영의 마음건강 정홍가의 정원이야기 정연우칼럼 서태일의 말레이시아통신 성인수의 도시와 인간 장두석의 경제만화경 유동우 경제옹알이 최석영의 버섯이야기 송철호의 反求諸己 곽영신의 색채이야기 김경진의 암각화로 만나는 선사예술 윤석의 더불어나무 설성제의 독서공방 배성은의 세금이야기 한삼건의 미래도시 이명인의 기후와 환경 신면주칼럼 청년CEO포럼 정치 전체 종합 울산시의회 국회/정당 북한/통일 행정/외교 청와대 6.13지방선거 4·11제19대 국회의원선거 경상라운지 6.5보궐선거 6.2지방선거 울산4·27재선거 2012국민의선택 2014 전국동시지방선거 제20대 국회의원선거 제19대 대통령선거 문재인대통령한미정상회담 경제 전체 종합 증권/금융/세무 유통/소비 건설/부동산 기업/무역 농축수산업 부동산정보 세무상담 이런직종 소비자상담 창업가이드 쇼핑정보 시사경제알기 그래픽뉴스 경매물건 해외경제 증권뉴스 경제가이드 금융가 성공기업N기업인 일터의사람들 울산의 마을기업 눈에 띄는 중개물건 지역경제에 活力을 세무경영 최고위과정 문화 전체 종합 방송연예 생활과여성 건강N의료 도서음반 공연전시 오늘의운세 아줌마영어 한국탑순례 울산의철새 들꽃이야기 다시찾는근교산 살기좋은울산 뉴욕통신 시가있는금요일 연재만화 애완동물 문화엿보기 극장가산책 여행편지 의전이야기 울산포유 한국의축제 주역과다도 풍수이야기 미술산책 클래식이야기 아동놀이 막상막하 청진기 잉글리쉬울산포유 울산의인물산책 박물관즐기기 박물관과함께 가족과함께나들이 레포츠 삼국지인물 사람들이떠나버린풍경 청소년기자단 미인의동굴 건강이최고죠 홍여진의수다 역사속오늘 주목 읽고싶은신간 조행기 건강한젊음울산의미래 주말문화광장 여성들의작은모임 WeekNFree 태화강수담 경상일보신춘문예 한국인의밥상 디카사진공모전 옛사진울산이야기 스크린터치 TEAF 구술로정리하는울산이야기 곽미자의요가에세이 도시탐험AtoZ 예술로다가가는남성열전 한국의이색박물관 지상인문강좌 교과서속문화탐방 이사람을주목한다 울산언더그라운드를찾아서 HealthNCity 일본어한마디 영화로보는라틴아메리카 아침묵향 이야기로읽는세계명화 금쪽같은우리말 성범중의한시 투데이영어 연재소설-이예 그 불멸의 길 생활일어 樂인영화낚인영화 연재소설-海帝어둔 김경수의기초한자이야기 동호회탐방 동시를 읽는 아침 시를 읽는 아침 이재명의 계절 한담(閑談) 경상 갤러리 맛집투어-울산의 줄서는집 하지태왕기 김정수의 시조산책 사회 전체 종합 이재명의 뉴스 뒤집어보기 울산 부산/양산 울산양산 부산경남 대구/경북 시민기자의창 사건사고 노동 생활단신 뒷골목 이동편집국 녹색도시울산 사방팔방 별난이야기 에코이코노미선진국을가다 신종플루 간추린뉴스 뉴스브리핑 창간21주년특집 햇살 사방팔방 일본대지진 2017 울산 방문의 해 경상일보TV 전체 여기어때 이현주프로의리얼골프 영상뉴스 울산관광 배석우프로의 숏게임 국제 전체 종합 지구촌 별난이야기 아시아 아메리카 유럽 아프리카 해외토픽 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:10 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주맛집 ‘표선행복한식당’, 12월 제주 동백꽃축제 관광객 위한 푸짐한 제주도 갈치조림 제공 기자명 인터넷뉴스팀 입력 2019.12.02 10:22 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 동백꽃의 계절 12월을 맞이하여 제주 허브동산에서 동백꽃축제가 열린다. 100그루 이상의 애기동백숲이 마련되어 있는 제주 허브동산에서 다채로운 동백꽃의 향연을 즐겼다면 다음은 속을 든든히 채울 차례다. 이에 제주허브동산 근방의 서귀포맛집 ‘표선행복한식당’은 신선한 제주도 갈치조림과 향토음식을 푸짐하게 차려내는 제주맛집으로 동백꽃축제 관광객을 위한 다양하 메뉴들을 제공 중이다. 푸른 제주바다에서 갓 잡은 다양한 해산물을 활용하여 20년 경력의 장인이 매일 아침 밑반찬부터 메인 메뉴를 손수 마련한다. 고급 한정식집을 연상케 하는 부드러운 접객 태도는 여행지의 피로로 날카로워진 여행객들의 마음을 달래주며 어머니의 손맛이 그리운 현지인들 역시 가족모임이나 회식, 생신잔치 등 다양한 목적으로 제주맛집 ‘표선행복한식당’을 찾고 있다. 다양한 단품메뉴가 준비되어 있으며 제주명물의 이름을 딴 한상차림이 유명하다. 모든 한상차림 메뉴에는 구수한 전복죽과 담백한 성게미역국, 보들보들한 전복구이와 칼칼한 전북뚝배기가 함께 나와 제주 향토음식의 진미를 맛볼 수 있도록 해준다. ‘올레길한상’은 제주대표 생선 옥돔구이를 메인으로 하며 ‘일출봉한상’은 기름기가 물씬 오른 겨울고등어구이와 고등어조림을 넉넉히 차려낸다. 추가 금액을 지불하면 더욱 푸짐한 ‘특 메뉴’로 업그레이드를 할 수 있는 ‘한라산한상’과 ‘백록담한상’은 제주 갈치요리를 화려하게 선보인다. ‘한라산한상’에서는 박력이 넘치는 통갈치구이와 매콤한 제주도 갈치조림을 만나볼 수 있고 ‘백록담한상’은 제주도 갈치에 통문어와 전복, 갯가재 등 각종 해산물을 곁들인 제주 갈치조림에 통갈치구이가 함께 나온다. 남녀노소 누구든 만족할 수 있는 서귀포맛집 ‘표선행복한식당’은 제주치고 늦은 시간인 밤 10시까지 영업하기 때문에 부담 없이 저녁 식사를 즐길 수 있으며 단체 관광객을 위한 넉넉한 주차장과 자리가 마련되어 있다. 아침 7시부터 문을 열기 때문에 헛헛한 속을 든든히 채우고 하루 일정을 시작하기에도 제격이다. 근처 유명 관광지인 제주허브동산은 물론 제주민속촌, 성읍민속마을, 섭지코지, 표선해수욕장 등과 가까워 여행 일정에 자연스럽게 방문할 수 있다. 제주맛집 ‘표선행복한식당’에 미리 연락하여 예약을 한다면 더욱 편리하고 빠르게 정갈하고 깔끔한 제주 향토음식과 제주도 갈치조림을 맛볼 수 있다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -434,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,6 +621,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -486,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,9 +643,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -508,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -540,9 +684,6 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -552,7 +693,325 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
